--- a/Step-2/data/TR32_WetDry_dataset.xlsx
+++ b/Step-2/data/TR32_WetDry_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moene001\OneDrive - Wageningen University &amp; Research\Documents\onderwijs\vakken\Hupsel\2021\04_uitwerking\Step-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/arnold_moene_wur_nl/Documents/Documents/onderwijs/vakken/Hupsel/2025/04 Uitwerking/Fluxes-1/Step-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6C52D4-608A-4D99-A0FE-EA3F3A3883F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{AD6C52D4-608A-4D99-A0FE-EA3F3A3883F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A69ED556-94AC-4F05-ABD0-5152DC80C102}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37200" yWindow="1560" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Both Sites" sheetId="9" r:id="rId1"/>
@@ -402,7 +402,56 @@
         </r>
       </text>
     </comment>
-    <comment ref="U5" authorId="0" shapeId="0" xr:uid="{BB093132-BA9C-4F24-A68D-1A754CA80764}">
+    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{3D5C3F09-B9D8-4C7F-A602-2F1E8753BD6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mean air pressure reduced to mean sea level; 
+the weather station is situated 29 meter above mean sea level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U5" authorId="0" shapeId="0" xr:uid="{67B3ADDD-BD8A-458A-916D-17FA0AA4AC87}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+rainfall intensity in past 24 hour interval</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{BB093132-BA9C-4F24-A68D-1A754CA80764}">
       <text>
         <r>
           <rPr>
@@ -426,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{03B4E134-42AD-470C-B8DB-15216A584293}">
+    <comment ref="Y5" authorId="0" shapeId="0" xr:uid="{03B4E134-42AD-470C-B8DB-15216A584293}">
       <text>
         <r>
           <rPr>
@@ -450,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X5" authorId="0" shapeId="0" xr:uid="{02FD1A2A-BDFB-4B04-ABFE-66F0B2166C16}">
+    <comment ref="Z5" authorId="0" shapeId="0" xr:uid="{02FD1A2A-BDFB-4B04-ABFE-66F0B2166C16}">
       <text>
         <r>
           <rPr>
@@ -474,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y5" authorId="0" shapeId="0" xr:uid="{F1F5F0EA-B54F-4780-A737-BF6EEE3413F3}">
+    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{F1F5F0EA-B54F-4780-A737-BF6EEE3413F3}">
       <text>
         <r>
           <rPr>
@@ -498,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z5" authorId="0" shapeId="0" xr:uid="{7A327A04-23B2-4811-AADE-1A5BC97A4B81}">
+    <comment ref="AB5" authorId="0" shapeId="0" xr:uid="{7A327A04-23B2-4811-AADE-1A5BC97A4B81}">
       <text>
         <r>
           <rPr>
@@ -522,7 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{404FE663-C168-4DD6-8268-5CFA3CC2FD5B}">
+    <comment ref="AC5" authorId="0" shapeId="0" xr:uid="{404FE663-C168-4DD6-8268-5CFA3CC2FD5B}">
       <text>
         <r>
           <rPr>
@@ -546,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB5" authorId="0" shapeId="0" xr:uid="{1984753B-B85B-446C-ACC6-8E5267389199}">
+    <comment ref="AD5" authorId="0" shapeId="0" xr:uid="{1984753B-B85B-446C-ACC6-8E5267389199}">
       <text>
         <r>
           <rPr>
@@ -570,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC5" authorId="0" shapeId="0" xr:uid="{1C24E910-7AEB-4294-9525-5590E28041DC}">
+    <comment ref="AE5" authorId="0" shapeId="0" xr:uid="{1C24E910-7AEB-4294-9525-5590E28041DC}">
       <text>
         <r>
           <rPr>
@@ -594,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD5" authorId="0" shapeId="0" xr:uid="{BEB7A976-76D1-4D6B-8DFF-710656012E71}">
+    <comment ref="AF5" authorId="0" shapeId="0" xr:uid="{BEB7A976-76D1-4D6B-8DFF-710656012E71}">
       <text>
         <r>
           <rPr>
@@ -618,7 +667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE5" authorId="0" shapeId="0" xr:uid="{773B3534-6885-4549-9794-FF1D0B2FF8B3}">
+    <comment ref="AG5" authorId="0" shapeId="0" xr:uid="{773B3534-6885-4549-9794-FF1D0B2FF8B3}">
       <text>
         <r>
           <rPr>
@@ -643,7 +692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF5" authorId="0" shapeId="0" xr:uid="{E00A6D61-180C-400A-93DF-1E1C264E8A61}">
+    <comment ref="AH5" authorId="0" shapeId="0" xr:uid="{E00A6D61-180C-400A-93DF-1E1C264E8A61}">
       <text>
         <r>
           <rPr>
@@ -667,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG5" authorId="0" shapeId="0" xr:uid="{438660D0-BA0A-4BC7-B2DD-015C7FF08A15}">
+    <comment ref="AI5" authorId="0" shapeId="0" xr:uid="{438660D0-BA0A-4BC7-B2DD-015C7FF08A15}">
       <text>
         <r>
           <rPr>
@@ -691,7 +740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH5" authorId="0" shapeId="0" xr:uid="{D3CDA327-E29E-44D9-BE5B-CF62A181ECC7}">
+    <comment ref="AJ5" authorId="0" shapeId="0" xr:uid="{D3CDA327-E29E-44D9-BE5B-CF62A181ECC7}">
       <text>
         <r>
           <rPr>
@@ -715,7 +764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI5" authorId="0" shapeId="0" xr:uid="{B5569D67-4CEE-43CD-A471-CA71F7410DB2}">
+    <comment ref="AK5" authorId="0" shapeId="0" xr:uid="{B5569D67-4CEE-43CD-A471-CA71F7410DB2}">
       <text>
         <r>
           <rPr>
@@ -739,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ5" authorId="0" shapeId="0" xr:uid="{60A8241F-0169-4882-8065-A339FA8FCFED}">
+    <comment ref="AL5" authorId="0" shapeId="0" xr:uid="{60A8241F-0169-4882-8065-A339FA8FCFED}">
       <text>
         <r>
           <rPr>
@@ -760,6 +809,55 @@
           </rPr>
           <t xml:space="preserve">
 Soil Heat Flux</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM5" authorId="0" shapeId="0" xr:uid="{3AA2BA28-5171-40FD-BE8D-AA6C1C098212}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mean air pressure reduced to mean sea level; 
+the weather station is situated 29 meter above mean sea level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN5" authorId="0" shapeId="0" xr:uid="{8538E4F5-5950-4DBD-B7FB-1F3893323842}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+rainfall intensity in past 24 hour interval</t>
         </r>
       </text>
     </comment>
@@ -2356,7 +2454,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="145">
   <si>
     <t>Datetime(end)</t>
   </si>
@@ -2768,6 +2866,30 @@
   <si>
     <t>soil heat flux over sugarbeet</t>
   </si>
+  <si>
+    <t>[hPa]</t>
+  </si>
+  <si>
+    <t>[mm/day]</t>
+  </si>
+  <si>
+    <t>p_b</t>
+  </si>
+  <si>
+    <t>prec_b</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>p_s</t>
+  </si>
+  <si>
+    <t>prec_s</t>
+  </si>
+  <si>
+    <t>air pressure (assumed)</t>
+  </si>
 </sst>
 </file>
 
@@ -2833,7 +2955,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2870,6 +2992,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2884,7 +3012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2910,6 +3038,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10302,7 +10431,7 @@
       <a:pPr>
         <a:defRPr sz="2800"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -16528,7 +16657,7 @@
       <a:pPr>
         <a:defRPr sz="2800"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -16623,9 +16752,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -16663,9 +16792,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16698,26 +16827,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16750,26 +16862,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16943,29 +17038,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA94FC8E-FE39-4F53-BBA2-165911AAB2EF}">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -16980,15 +17075,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -17046,59 +17141,71 @@
       <c r="S5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="V5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AE5" s="12" t="s">
+      <c r="AG5" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AH5" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AI5" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AH5" s="12" t="s">
+      <c r="AJ5" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AI5" s="12" t="s">
+      <c r="AK5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AJ5" s="13" t="s">
+      <c r="AL5" s="13" t="s">
         <v>102</v>
       </c>
+      <c r="AM5" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN5" s="21" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -17156,44 +17263,44 @@
       <c r="S6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="V6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="W6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="X6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="Y6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="Z6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="AA6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="AB6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AC6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AD6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AE6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AF6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="AE6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF6" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="AG6" s="12" t="s">
         <v>35</v>
@@ -17204,11 +17311,23 @@
       <c r="AI6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AJ6" s="13" t="s">
+      <c r="AJ6" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="AK6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN6" s="21" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
@@ -17267,58 +17386,70 @@
         <v>119</v>
       </c>
       <c r="T7" t="s">
+        <v>144</v>
+      </c>
+      <c r="U7" t="s">
+        <v>141</v>
+      </c>
+      <c r="V7" t="s">
         <v>120</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="W7" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="V7" s="19" t="s">
+      <c r="X7" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="W7" s="18" t="s">
+      <c r="Y7" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="X7" s="18" t="s">
+      <c r="Z7" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Y7" s="19" t="s">
+      <c r="AA7" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="Z7" s="19" t="s">
+      <c r="AB7" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>127</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>128</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>129</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AF7" t="s">
         <v>130</v>
       </c>
-      <c r="AE7" s="19" t="s">
+      <c r="AG7" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="AF7" s="19" t="s">
+      <c r="AH7" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="AG7" s="19" t="s">
+      <c r="AI7" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="AH7" s="19" t="s">
+      <c r="AJ7" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="AI7" s="19" t="s">
+      <c r="AK7" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="AJ7" s="19" t="s">
+      <c r="AL7" s="19" t="s">
         <v>136</v>
       </c>
+      <c r="AM7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <f>'Bare soil 24hour data'!A8</f>
         <v>40029</v>
@@ -17396,75 +17527,87 @@
         <v>1.4315839520833393</v>
       </c>
       <c r="T8">
+        <v>1013</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
         <f>'Sugarbeet 24hour data'!H8</f>
         <v>290.19750000000005</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <f>'Sugarbeet 24hour data'!I8</f>
         <v>8.9716395437499982E-3</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <f>'Sugarbeet 24hour data'!J8</f>
         <v>7.4602800575841663E-3</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <f>'Sugarbeet 24hour data'!K8</f>
         <v>6.2414708270833316E-4</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <f>'Sugarbeet 24hour data'!L8</f>
         <v>1.2025874999999999</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <f>'Sugarbeet 24hour data'!M8</f>
         <v>0.98653187499999995</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <f>'Sugarbeet 24hour data'!N8</f>
         <v>118.90663333333333</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <f>'Sugarbeet 24hour data'!O8</f>
         <v>17.178227708333335</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <f>'Sugarbeet 24hour data'!P8</f>
         <v>91.450219395812454</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <f>'Sugarbeet 24hour data'!Q8</f>
         <v>0.1053559168333333</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <f>'Sugarbeet 24hour data'!R8</f>
         <v>-3.1410317206041691E-7</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <f>'Sugarbeet 24hour data'!S8</f>
         <v>299.18403084166664</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <f>'Sugarbeet 24hour data'!T8</f>
         <v>61.809751666666649</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <f>'Sugarbeet 24hour data'!U8</f>
         <v>323.73570187499996</v>
       </c>
-      <c r="AH8">
+      <c r="AJ8">
         <f>'Sugarbeet 24hour data'!V8</f>
         <v>398.99182020833342</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <f>'Sugarbeet 24hour data'!W8</f>
         <v>162.11816084166668</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
         <f>'Sugarbeet 24hour data'!X8</f>
         <v>-1.1579722645833377</v>
       </c>
+      <c r="AM8">
+        <v>1013</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <f>'Bare soil 24hour data'!A9</f>
         <v>40030</v>
@@ -17542,75 +17685,87 @@
         <v>9.7193260833333355</v>
       </c>
       <c r="T9">
+        <v>1013</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <f>'Sugarbeet 24hour data'!H9</f>
         <v>293.0691666666666</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <f>'Sugarbeet 24hour data'!I9</f>
         <v>9.5040291437499969E-3</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <f>'Sugarbeet 24hour data'!J9</f>
         <v>7.9862854989574943E-3</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <f>'Sugarbeet 24hour data'!K9</f>
         <v>6.2825541624999994E-4</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <f>'Sugarbeet 24hour data'!L9</f>
         <v>1.1900437499999998</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <f>'Sugarbeet 24hour data'!M9</f>
         <v>1.4868239583333338</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <f>'Sugarbeet 24hour data'!N9</f>
         <v>106.12166666666667</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <f>'Sugarbeet 24hour data'!O9</f>
         <v>6.7533893749999985</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <f>'Sugarbeet 24hour data'!P9</f>
         <v>84.602718958291646</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <f>'Sugarbeet 24hour data'!Q9</f>
         <v>0.14534145845833335</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <f>'Sugarbeet 24hour data'!R9</f>
         <v>-2.0906009229999989E-7</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <f>'Sugarbeet 24hour data'!S9</f>
         <v>292.29283777083327</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <f>'Sugarbeet 24hour data'!T9</f>
         <v>60.163766002083328</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <f>'Sugarbeet 24hour data'!U9</f>
         <v>340.04152088888895</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <f>'Sugarbeet 24hour data'!V9</f>
         <v>415.06757955555571</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <f>'Sugarbeet 24hour data'!W9</f>
         <v>172.57828455333333</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <f>'Sugarbeet 24hour data'!X9</f>
         <v>8.7643616874999974</v>
       </c>
+      <c r="AM9">
+        <v>1013</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <f>'Bare soil 24hour data'!A10</f>
         <v>40031</v>
@@ -17688,75 +17843,87 @@
         <v>14.023332820833341</v>
       </c>
       <c r="T10">
+        <v>1013</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <f>'Sugarbeet 24hour data'!H10</f>
         <v>295.12229166666663</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <f>'Sugarbeet 24hour data'!I10</f>
         <v>1.0919567378260869E-2</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <f>'Sugarbeet 24hour data'!J10</f>
         <v>9.2612122631910102E-3</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <f>'Sugarbeet 24hour data'!K10</f>
         <v>6.3270087000000014E-4</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <f>'Sugarbeet 24hour data'!L10</f>
         <v>1.1790645833333337</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <f>'Sugarbeet 24hour data'!M10</f>
         <v>1.9277904166666662</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <f>'Sugarbeet 24hour data'!N10</f>
         <v>109.88481250000001</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <f>'Sugarbeet 24hour data'!O10</f>
         <v>3.4220124999999975</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <f>'Sugarbeet 24hour data'!P10</f>
         <v>81.590844065239139</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <f>'Sugarbeet 24hour data'!Q10</f>
         <v>0.17219710412499997</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <f>'Sugarbeet 24hour data'!R10</f>
         <v>-2.1045918977826085E-7</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <f>'Sugarbeet 24hour data'!S10</f>
         <v>275.89577665958336</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <f>'Sugarbeet 24hour data'!T10</f>
         <v>57.915241187499987</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <f>'Sugarbeet 24hour data'!U10</f>
         <v>354.44676333333331</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <f>'Sugarbeet 24hour data'!V10</f>
         <v>424.60929022222228</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <f>'Sugarbeet 24hour data'!W10</f>
         <v>162.35004428133334</v>
       </c>
-      <c r="AJ10">
+      <c r="AL10">
         <f>'Sugarbeet 24hour data'!X10</f>
         <v>15.576517208333337</v>
       </c>
+      <c r="AM10">
+        <v>1013</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <f>'Bare soil 24hour data'!A11</f>
         <v>40032</v>
@@ -17834,75 +18001,87 @@
         <v>1.7474472354166679</v>
       </c>
       <c r="T11">
+        <v>1013</v>
+      </c>
+      <c r="U11">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="V11">
         <f>'Sugarbeet 24hour data'!H11</f>
         <v>295.68400000000014</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <f>'Sugarbeet 24hour data'!I11</f>
         <v>1.2111454545454549E-2</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <f>'Sugarbeet 24hour data'!J11</f>
         <v>1.0324617280992885E-2</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <f>'Sugarbeet 24hour data'!K11</f>
         <v>6.3247757515151528E-4</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <f>'Sugarbeet 24hour data'!L11</f>
         <v>1.1730657142857144</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <f>'Sugarbeet 24hour data'!M11</f>
         <v>1.7661772285428574</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <f>'Sugarbeet 24hour data'!N11</f>
         <v>161.70139999999998</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <f>'Sugarbeet 24hour data'!O11</f>
         <v>-0.13139250000000025</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <f>'Sugarbeet 24hour data'!P11</f>
         <v>102.29546834375</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <f>'Sugarbeet 24hour data'!Q11</f>
         <v>0.14295731243750001</v>
       </c>
-      <c r="AD11">
+      <c r="AF11">
         <f>'Sugarbeet 24hour data'!R11</f>
         <v>-3.6462647100000007E-7</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <f>'Sugarbeet 24hour data'!S11</f>
         <v>184.83551557800618</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <f>'Sugarbeet 24hour data'!T11</f>
         <v>39.314833957729164</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <f>'Sugarbeet 24hour data'!U11</f>
         <v>382.41856708333336</v>
       </c>
-      <c r="AH11">
+      <c r="AJ11">
         <f>'Sugarbeet 24hour data'!V11</f>
         <v>419.2271477083334</v>
       </c>
-      <c r="AI11">
+      <c r="AK11">
         <f>'Sugarbeet 24hour data'!W11</f>
         <v>108.71210099527708</v>
       </c>
-      <c r="AJ11">
+      <c r="AL11">
         <f>'Sugarbeet 24hour data'!X11</f>
         <v>6.9513333062499969</v>
       </c>
+      <c r="AM11">
+        <v>1013</v>
+      </c>
+      <c r="AN11">
+        <v>39.200000000000003</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <f>'Bare soil 24hour data'!A12</f>
         <v>40033</v>
@@ -17980,75 +18159,87 @@
         <v>-11.620152749374997</v>
       </c>
       <c r="T12">
+        <v>1013</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <f>'Sugarbeet 24hour data'!H12</f>
         <v>291.52808510638295</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <f>'Sugarbeet 24hour data'!I12</f>
         <v>1.4853739152173915E-2</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <f>'Sugarbeet 24hour data'!J12</f>
         <v>1.2463882499114898E-2</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <f>'Sugarbeet 24hour data'!K12</f>
         <v>5.802115206521739E-4</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <f>'Sugarbeet 24hour data'!L12</f>
         <v>1.1917425531914898</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <f>'Sugarbeet 24hour data'!M12</f>
         <v>1.8558548936170205</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <f>'Sugarbeet 24hour data'!N12</f>
         <v>261.81737021276592</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <f>'Sugarbeet 24hour data'!O12</f>
         <v>2.1597315652608695</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <f>'Sugarbeet 24hour data'!P12</f>
         <v>39.707857777800001</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <f>'Sugarbeet 24hour data'!Q12</f>
         <v>0.19213421732608696</v>
       </c>
-      <c r="AD12">
+      <c r="AF12">
         <f>'Sugarbeet 24hour data'!R12</f>
         <v>-1.1214944533777777E-7</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <f>'Sugarbeet 24hour data'!S12</f>
         <v>75.332214027083324</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <f>'Sugarbeet 24hour data'!T12</f>
         <v>15.44842086875</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <f>'Sugarbeet 24hour data'!U12</f>
         <v>389.87154416666664</v>
       </c>
-      <c r="AH12">
+      <c r="AJ12">
         <f>'Sugarbeet 24hour data'!V12</f>
         <v>407.00132222222226</v>
       </c>
-      <c r="AI12">
+      <c r="AK12">
         <f>'Sugarbeet 24hour data'!W12</f>
         <v>61.020271935135142</v>
       </c>
-      <c r="AJ12">
+      <c r="AL12">
         <f>'Sugarbeet 24hour data'!X12</f>
         <v>-4.6057232387499987</v>
       </c>
+      <c r="AM12">
+        <v>1013</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <f>'Bare soil 24hour data'!A13</f>
         <v>40034</v>
@@ -18126,75 +18317,87 @@
         <v>6.0193671785416676</v>
       </c>
       <c r="T13">
+        <v>1013</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <f>'Sugarbeet 24hour data'!H13</f>
         <v>291.64041666666668</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <f>'Sugarbeet 24hour data'!I13</f>
         <v>1.3973770833333335E-2</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <f>'Sugarbeet 24hour data'!J13</f>
         <v>1.1740506384505647E-2</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <f>'Sugarbeet 24hour data'!K13</f>
         <v>5.9467020479166675E-4</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <f>'Sugarbeet 24hour data'!L13</f>
         <v>1.1902187500000003</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <f>'Sugarbeet 24hour data'!M13</f>
         <v>1.2591370833333337</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <f>'Sugarbeet 24hour data'!N13</f>
         <v>266.9328979166666</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <f>'Sugarbeet 24hour data'!O13</f>
         <v>12.841046916729164</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <f>'Sugarbeet 24hour data'!P13</f>
         <v>66.267727979166679</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <f>'Sugarbeet 24hour data'!Q13</f>
         <v>0.13995652068750009</v>
       </c>
-      <c r="AD13">
+      <c r="AF13">
         <f>'Sugarbeet 24hour data'!R13</f>
         <v>-3.3678120700833333E-7</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <f>'Sugarbeet 24hour data'!S13</f>
         <v>170.43689752791667</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <f>'Sugarbeet 24hour data'!T13</f>
         <v>34.744009168749997</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <f>'Sugarbeet 24hour data'!U13</f>
         <v>374.27200388888895</v>
       </c>
-      <c r="AH13">
+      <c r="AJ13">
         <f>'Sugarbeet 24hour data'!V13</f>
         <v>413.48874888888889</v>
       </c>
-      <c r="AI13">
+      <c r="AK13">
         <f>'Sugarbeet 24hour data'!W13</f>
         <v>106.28032960916669</v>
       </c>
-      <c r="AJ13">
+      <c r="AL13">
         <f>'Sugarbeet 24hour data'!X13</f>
         <v>3.5588118124999997</v>
       </c>
+      <c r="AM13">
+        <v>1013</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <f>'Bare soil 24hour data'!A14</f>
         <v>40035</v>
@@ -18272,72 +18475,84 @@
         <v>2.0352013604166665</v>
       </c>
       <c r="T14">
+        <v>1013</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <f>'Sugarbeet 24hour data'!H14</f>
         <v>292.16395833333337</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <f>'Sugarbeet 24hour data'!I14</f>
         <v>1.3223791666666672E-2</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <f>'Sugarbeet 24hour data'!J14</f>
         <v>1.1148929443380824E-2</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <f>'Sugarbeet 24hour data'!K14</f>
         <v>5.9679666687499991E-4</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <f>'Sugarbeet 24hour data'!L14</f>
         <v>1.1861041666666663</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <f>'Sugarbeet 24hour data'!M14</f>
         <v>1.772675625</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <f>'Sugarbeet 24hour data'!N14</f>
         <v>269.1829166666667</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <f>'Sugarbeet 24hour data'!O14</f>
         <v>8.8232041666666703</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <f>'Sugarbeet 24hour data'!P14</f>
         <v>83.743014833333334</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <f>'Sugarbeet 24hour data'!Q14</f>
         <v>0.1886193336458333</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <f>'Sugarbeet 24hour data'!R14</f>
         <v>-3.051602661916668E-7</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <f>'Sugarbeet 24hour data'!S14</f>
         <v>197.80150411666668</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <f>'Sugarbeet 24hour data'!T14</f>
         <v>41.356642972916667</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <f>'Sugarbeet 24hour data'!U14</f>
         <v>365.64724395348827</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <f>'Sugarbeet 24hour data'!V14</f>
         <v>409.79195720930232</v>
       </c>
-      <c r="AI14">
+      <c r="AK14">
         <f>'Sugarbeet 24hour data'!W14</f>
         <v>130.49141081162796</v>
       </c>
-      <c r="AJ14">
+      <c r="AL14">
         <f>'Sugarbeet 24hour data'!X14</f>
         <v>2.1921520562500008</v>
+      </c>
+      <c r="AM14">
+        <v>1013</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18354,20 +18569,20 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:X7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -18382,15 +18597,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -18449,7 +18664,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -18523,7 +18738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
@@ -18595,7 +18810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>40029</v>
       </c>
@@ -18671,7 +18886,7 @@
         <v>1.4315839520833393</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <f t="shared" ref="A9:A14" si="0">A8+1</f>
         <v>40030</v>
@@ -18748,7 +18963,7 @@
         <v>9.7193260833333355</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>40031</v>
@@ -18825,7 +19040,7 @@
         <v>14.023332820833341</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>40032</v>
@@ -18902,7 +19117,7 @@
         <v>1.7474472354166679</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>40033</v>
@@ -18979,7 +19194,7 @@
         <v>-11.620152749374997</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>40034</v>
@@ -19056,7 +19271,7 @@
         <v>6.0193671785416676</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>40035</v>
@@ -19150,17 +19365,17 @@
       <selection activeCell="J8" sqref="J8:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -19175,15 +19390,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -19257,7 +19472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -19331,7 +19546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>40029</v>
       </c>
@@ -19407,7 +19622,7 @@
         <v>-1.1579722645833377</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <f t="shared" ref="A9:A14" si="0">A8+1</f>
         <v>40030</v>
@@ -19484,7 +19699,7 @@
         <v>8.7643616874999974</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>40031</v>
@@ -19561,7 +19776,7 @@
         <v>15.576517208333337</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>40032</v>
@@ -19638,7 +19853,7 @@
         <v>6.9513333062499969</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>40033</v>
@@ -19715,7 +19930,7 @@
         <v>-4.6057232387499987</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>40034</v>
@@ -19792,7 +20007,7 @@
         <v>3.5588118124999997</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>40035</v>
@@ -19883,38 +20098,38 @@
   <dimension ref="A1:AE344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="W7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="W325" sqref="W325"/>
       <selection pane="topRight" activeCell="W325" sqref="W325"/>
       <selection pane="bottomLeft" activeCell="W325" sqref="W325"/>
       <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="16" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7265625" customWidth="1"/>
-    <col min="26" max="26" width="13.453125" customWidth="1"/>
+    <col min="12" max="16" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.77734375" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -19928,12 +20143,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -20010,7 +20225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -20087,7 +20302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f t="shared" ref="A7" si="0">DATE(2009,1,1)+B7-1+C7/24+D7/24/60</f>
         <v>40029</v>
@@ -20175,7 +20390,7 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f t="shared" ref="A8:A71" si="2">DATE(2009,1,1)+B8-1+C8/24+D8/24/60</f>
         <v>40029.020833333336</v>
@@ -20263,7 +20478,7 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>40029.041666666664</v>
@@ -20351,7 +20566,7 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>40029.0625</v>
@@ -20439,7 +20654,7 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>40029.083333333336</v>
@@ -20527,7 +20742,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>40029.104166666672</v>
@@ -20615,7 +20830,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>40029.125</v>
@@ -20703,7 +20918,7 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>40029.145833333336</v>
@@ -20791,7 +21006,7 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>40029.166666666664</v>
@@ -20879,7 +21094,7 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f t="shared" si="2"/>
         <v>40029.1875</v>
@@ -20967,7 +21182,7 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f t="shared" si="2"/>
         <v>40029.208333333336</v>
@@ -21055,7 +21270,7 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f t="shared" si="2"/>
         <v>40029.229166666672</v>
@@ -21143,7 +21358,7 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>40029.25</v>
@@ -21231,7 +21446,7 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
         <v>40029.270833333336</v>
@@ -21319,7 +21534,7 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
         <v>40029.291666666664</v>
@@ -21407,7 +21622,7 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
         <v>40029.3125</v>
@@ -21495,7 +21710,7 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
         <v>40029.333333333336</v>
@@ -21583,7 +21798,7 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
         <v>40029.354166666672</v>
@@ -21671,7 +21886,7 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f t="shared" si="2"/>
         <v>40029.375</v>
@@ -21759,7 +21974,7 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <f t="shared" si="2"/>
         <v>40029.395833333336</v>
@@ -21847,7 +22062,7 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <f t="shared" si="2"/>
         <v>40029.416666666664</v>
@@ -21935,7 +22150,7 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <f t="shared" si="2"/>
         <v>40029.4375</v>
@@ -22023,7 +22238,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <f t="shared" si="2"/>
         <v>40029.458333333336</v>
@@ -22111,7 +22326,7 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <f t="shared" si="2"/>
         <v>40029.479166666672</v>
@@ -22199,7 +22414,7 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <f t="shared" si="2"/>
         <v>40029.5</v>
@@ -22287,7 +22502,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <f t="shared" si="2"/>
         <v>40029.520833333336</v>
@@ -22375,7 +22590,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <f t="shared" si="2"/>
         <v>40029.541666666664</v>
@@ -22463,7 +22678,7 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <f t="shared" si="2"/>
         <v>40029.5625</v>
@@ -22551,7 +22766,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <f t="shared" si="2"/>
         <v>40029.583333333336</v>
@@ -22639,7 +22854,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <f t="shared" si="2"/>
         <v>40029.604166666672</v>
@@ -22727,7 +22942,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <f t="shared" si="2"/>
         <v>40029.625</v>
@@ -22815,7 +23030,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <f t="shared" si="2"/>
         <v>40029.645833333336</v>
@@ -22903,7 +23118,7 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <f t="shared" si="2"/>
         <v>40029.666666666664</v>
@@ -22991,7 +23206,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <f t="shared" si="2"/>
         <v>40029.6875</v>
@@ -23079,7 +23294,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <f t="shared" si="2"/>
         <v>40029.708333333336</v>
@@ -23167,7 +23382,7 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <f t="shared" si="2"/>
         <v>40029.729166666672</v>
@@ -23255,7 +23470,7 @@
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <f t="shared" si="2"/>
         <v>40029.75</v>
@@ -23343,7 +23558,7 @@
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <f t="shared" si="2"/>
         <v>40029.770833333336</v>
@@ -23431,7 +23646,7 @@
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <f t="shared" si="2"/>
         <v>40029.791666666664</v>
@@ -23519,7 +23734,7 @@
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <f t="shared" si="2"/>
         <v>40029.8125</v>
@@ -23607,7 +23822,7 @@
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <f t="shared" si="2"/>
         <v>40029.833333333336</v>
@@ -23695,7 +23910,7 @@
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <f t="shared" si="2"/>
         <v>40029.854166666672</v>
@@ -23783,7 +23998,7 @@
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <f t="shared" si="2"/>
         <v>40029.875</v>
@@ -23871,7 +24086,7 @@
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <f t="shared" si="2"/>
         <v>40029.895833333336</v>
@@ -23959,7 +24174,7 @@
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <f t="shared" si="2"/>
         <v>40029.916666666664</v>
@@ -24047,7 +24262,7 @@
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <f t="shared" si="2"/>
         <v>40029.9375</v>
@@ -24135,7 +24350,7 @@
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <f t="shared" si="2"/>
         <v>40029.958333333336</v>
@@ -24223,7 +24438,7 @@
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <f t="shared" si="2"/>
         <v>40029.979166666672</v>
@@ -24311,7 +24526,7 @@
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <f t="shared" si="2"/>
         <v>40030</v>
@@ -24399,7 +24614,7 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <f t="shared" si="2"/>
         <v>40030.020833333336</v>
@@ -24487,7 +24702,7 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <f t="shared" si="2"/>
         <v>40030.041666666664</v>
@@ -24575,7 +24790,7 @@
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <f t="shared" si="2"/>
         <v>40030.0625</v>
@@ -24663,7 +24878,7 @@
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <f t="shared" si="2"/>
         <v>40030.083333333336</v>
@@ -24751,7 +24966,7 @@
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <f t="shared" si="2"/>
         <v>40030.104166666672</v>
@@ -24839,7 +25054,7 @@
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <f t="shared" si="2"/>
         <v>40030.125</v>
@@ -24927,7 +25142,7 @@
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <f t="shared" si="2"/>
         <v>40030.145833333336</v>
@@ -25015,7 +25230,7 @@
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <f t="shared" si="2"/>
         <v>40030.166666666664</v>
@@ -25095,7 +25310,7 @@
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <f t="shared" si="2"/>
         <v>40030.1875</v>
@@ -25175,7 +25390,7 @@
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <f t="shared" si="2"/>
         <v>40030.208333333336</v>
@@ -25255,7 +25470,7 @@
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <f t="shared" si="2"/>
         <v>40030.229166666672</v>
@@ -25343,7 +25558,7 @@
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <f t="shared" si="2"/>
         <v>40030.25</v>
@@ -25431,7 +25646,7 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <f t="shared" si="2"/>
         <v>40030.270833333336</v>
@@ -25519,7 +25734,7 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <f t="shared" si="2"/>
         <v>40030.291666666664</v>
@@ -25607,7 +25822,7 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <f t="shared" si="2"/>
         <v>40030.3125</v>
@@ -25695,7 +25910,7 @@
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <f t="shared" si="2"/>
         <v>40030.333333333336</v>
@@ -25783,7 +25998,7 @@
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <f t="shared" ref="A72:A135" si="8">DATE(2009,1,1)+B72-1+C72/24+D72/24/60</f>
         <v>40030.354166666672</v>
@@ -25871,7 +26086,7 @@
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <f t="shared" si="8"/>
         <v>40030.375</v>
@@ -25959,7 +26174,7 @@
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <f t="shared" si="8"/>
         <v>40030.395833333336</v>
@@ -26047,7 +26262,7 @@
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <f t="shared" si="8"/>
         <v>40030.416666666664</v>
@@ -26135,7 +26350,7 @@
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <f t="shared" si="8"/>
         <v>40030.4375</v>
@@ -26223,7 +26438,7 @@
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <f t="shared" si="8"/>
         <v>40030.458333333336</v>
@@ -26311,7 +26526,7 @@
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <f t="shared" si="8"/>
         <v>40030.479166666672</v>
@@ -26399,7 +26614,7 @@
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <f t="shared" si="8"/>
         <v>40030.5</v>
@@ -26487,7 +26702,7 @@
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <f t="shared" si="8"/>
         <v>40030.520833333336</v>
@@ -26575,7 +26790,7 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <f t="shared" si="8"/>
         <v>40030.541666666664</v>
@@ -26663,7 +26878,7 @@
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <f t="shared" si="8"/>
         <v>40030.5625</v>
@@ -26751,7 +26966,7 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <f t="shared" si="8"/>
         <v>40030.583333333336</v>
@@ -26839,7 +27054,7 @@
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <f t="shared" si="8"/>
         <v>40030.604166666672</v>
@@ -26927,7 +27142,7 @@
       <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <f t="shared" si="8"/>
         <v>40030.625</v>
@@ -27015,7 +27230,7 @@
       <c r="AD85" s="3"/>
       <c r="AE85" s="3"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <f t="shared" si="8"/>
         <v>40030.645833333336</v>
@@ -27103,7 +27318,7 @@
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <f t="shared" si="8"/>
         <v>40030.666666666664</v>
@@ -27191,7 +27406,7 @@
       <c r="AD87" s="3"/>
       <c r="AE87" s="3"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <f t="shared" si="8"/>
         <v>40030.6875</v>
@@ -27279,7 +27494,7 @@
       <c r="AD88" s="3"/>
       <c r="AE88" s="3"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <f t="shared" si="8"/>
         <v>40030.708333333336</v>
@@ -27367,7 +27582,7 @@
       <c r="AD89" s="3"/>
       <c r="AE89" s="3"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <f t="shared" si="8"/>
         <v>40030.729166666672</v>
@@ -27455,7 +27670,7 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <f t="shared" si="8"/>
         <v>40030.75</v>
@@ -27543,7 +27758,7 @@
       <c r="AD91" s="3"/>
       <c r="AE91" s="3"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <f t="shared" si="8"/>
         <v>40030.770833333336</v>
@@ -27631,7 +27846,7 @@
       <c r="AD92" s="3"/>
       <c r="AE92" s="3"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <f t="shared" si="8"/>
         <v>40030.791666666664</v>
@@ -27719,7 +27934,7 @@
       <c r="AD93" s="3"/>
       <c r="AE93" s="3"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <f t="shared" si="8"/>
         <v>40030.8125</v>
@@ -27807,7 +28022,7 @@
       <c r="AD94" s="3"/>
       <c r="AE94" s="3"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <f t="shared" si="8"/>
         <v>40030.833333333336</v>
@@ -27895,7 +28110,7 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <f t="shared" si="8"/>
         <v>40030.854166666672</v>
@@ -27983,7 +28198,7 @@
       <c r="AD96" s="3"/>
       <c r="AE96" s="3"/>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <f t="shared" si="8"/>
         <v>40030.875</v>
@@ -28071,7 +28286,7 @@
       <c r="AD97" s="3"/>
       <c r="AE97" s="3"/>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <f t="shared" si="8"/>
         <v>40030.895833333336</v>
@@ -28159,7 +28374,7 @@
       <c r="AD98" s="3"/>
       <c r="AE98" s="3"/>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <f t="shared" si="8"/>
         <v>40030.916666666664</v>
@@ -28247,7 +28462,7 @@
       <c r="AD99" s="3"/>
       <c r="AE99" s="3"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <f t="shared" si="8"/>
         <v>40030.9375</v>
@@ -28335,7 +28550,7 @@
       <c r="AD100" s="3"/>
       <c r="AE100" s="3"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <f t="shared" si="8"/>
         <v>40030.958333333336</v>
@@ -28423,7 +28638,7 @@
       <c r="AD101" s="3"/>
       <c r="AE101" s="3"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <f t="shared" si="8"/>
         <v>40030.979166666672</v>
@@ -28511,7 +28726,7 @@
       <c r="AD102" s="3"/>
       <c r="AE102" s="3"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <f t="shared" si="8"/>
         <v>40031</v>
@@ -28599,7 +28814,7 @@
       <c r="AD103" s="3"/>
       <c r="AE103" s="3"/>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <f t="shared" si="8"/>
         <v>40031.020833333336</v>
@@ -28687,7 +28902,7 @@
       <c r="AD104" s="3"/>
       <c r="AE104" s="3"/>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <f t="shared" si="8"/>
         <v>40031.041666666664</v>
@@ -28775,7 +28990,7 @@
       <c r="AD105" s="3"/>
       <c r="AE105" s="3"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <f t="shared" si="8"/>
         <v>40031.0625</v>
@@ -28863,7 +29078,7 @@
       <c r="AD106" s="3"/>
       <c r="AE106" s="3"/>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <f t="shared" si="8"/>
         <v>40031.083333333336</v>
@@ -28951,7 +29166,7 @@
       <c r="AD107" s="3"/>
       <c r="AE107" s="3"/>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <f t="shared" si="8"/>
         <v>40031.104166666672</v>
@@ -29039,7 +29254,7 @@
       <c r="AD108" s="3"/>
       <c r="AE108" s="3"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <f t="shared" si="8"/>
         <v>40031.125</v>
@@ -29127,7 +29342,7 @@
       <c r="AD109" s="3"/>
       <c r="AE109" s="3"/>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <f t="shared" si="8"/>
         <v>40031.145833333336</v>
@@ -29215,7 +29430,7 @@
       <c r="AD110" s="3"/>
       <c r="AE110" s="3"/>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <f t="shared" si="8"/>
         <v>40031.166666666664</v>
@@ -29303,7 +29518,7 @@
       <c r="AD111" s="3"/>
       <c r="AE111" s="3"/>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <f t="shared" si="8"/>
         <v>40031.1875</v>
@@ -29383,7 +29598,7 @@
       <c r="AD112" s="3"/>
       <c r="AE112" s="3"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <f t="shared" si="8"/>
         <v>40031.208333333336</v>
@@ -29463,7 +29678,7 @@
       <c r="AD113" s="3"/>
       <c r="AE113" s="3"/>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <f t="shared" si="8"/>
         <v>40031.229166666672</v>
@@ -29543,7 +29758,7 @@
       <c r="AD114" s="3"/>
       <c r="AE114" s="3"/>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <f t="shared" si="8"/>
         <v>40031.25</v>
@@ -29631,7 +29846,7 @@
       <c r="AD115" s="3"/>
       <c r="AE115" s="3"/>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <f t="shared" si="8"/>
         <v>40031.270833333336</v>
@@ -29719,7 +29934,7 @@
       <c r="AD116" s="3"/>
       <c r="AE116" s="3"/>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <f t="shared" si="8"/>
         <v>40031.291666666664</v>
@@ -29807,7 +30022,7 @@
       <c r="AD117" s="3"/>
       <c r="AE117" s="3"/>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <f t="shared" si="8"/>
         <v>40031.3125</v>
@@ -29895,7 +30110,7 @@
       <c r="AD118" s="3"/>
       <c r="AE118" s="3"/>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <f t="shared" si="8"/>
         <v>40031.333333333336</v>
@@ -29983,7 +30198,7 @@
       <c r="AD119" s="3"/>
       <c r="AE119" s="3"/>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <f t="shared" si="8"/>
         <v>40031.354166666672</v>
@@ -30071,7 +30286,7 @@
       <c r="AD120" s="3"/>
       <c r="AE120" s="3"/>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <f t="shared" si="8"/>
         <v>40031.375</v>
@@ -30149,7 +30364,7 @@
       <c r="AD121" s="3"/>
       <c r="AE121" s="3"/>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <f t="shared" si="8"/>
         <v>40031.395833333336</v>
@@ -30227,7 +30442,7 @@
       <c r="AD122" s="3"/>
       <c r="AE122" s="3"/>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <f t="shared" si="8"/>
         <v>40031.416666666664</v>
@@ -30315,7 +30530,7 @@
       <c r="AD123" s="3"/>
       <c r="AE123" s="3"/>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <f t="shared" si="8"/>
         <v>40031.4375</v>
@@ -30403,7 +30618,7 @@
       <c r="AD124" s="3"/>
       <c r="AE124" s="3"/>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <f t="shared" si="8"/>
         <v>40031.458333333336</v>
@@ -30491,7 +30706,7 @@
       <c r="AD125" s="3"/>
       <c r="AE125" s="3"/>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <f t="shared" si="8"/>
         <v>40031.479166666672</v>
@@ -30579,7 +30794,7 @@
       <c r="AD126" s="3"/>
       <c r="AE126" s="3"/>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <f t="shared" si="8"/>
         <v>40031.5</v>
@@ -30667,7 +30882,7 @@
       <c r="AD127" s="3"/>
       <c r="AE127" s="3"/>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <f t="shared" si="8"/>
         <v>40031.520833333336</v>
@@ -30755,7 +30970,7 @@
       <c r="AD128" s="3"/>
       <c r="AE128" s="3"/>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <f t="shared" si="8"/>
         <v>40031.541666666664</v>
@@ -30843,7 +31058,7 @@
       <c r="AD129" s="3"/>
       <c r="AE129" s="3"/>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <f t="shared" si="8"/>
         <v>40031.5625</v>
@@ -30931,7 +31146,7 @@
       <c r="AD130" s="3"/>
       <c r="AE130" s="3"/>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <f t="shared" si="8"/>
         <v>40031.583333333336</v>
@@ -31019,7 +31234,7 @@
       <c r="AD131" s="3"/>
       <c r="AE131" s="3"/>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <f t="shared" si="8"/>
         <v>40031.604166666672</v>
@@ -31107,7 +31322,7 @@
       <c r="AD132" s="3"/>
       <c r="AE132" s="3"/>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <f t="shared" si="8"/>
         <v>40031.625</v>
@@ -31195,7 +31410,7 @@
       <c r="AD133" s="3"/>
       <c r="AE133" s="3"/>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <f t="shared" si="8"/>
         <v>40031.645833333336</v>
@@ -31283,7 +31498,7 @@
       <c r="AD134" s="3"/>
       <c r="AE134" s="3"/>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <f t="shared" si="8"/>
         <v>40031.666666666664</v>
@@ -31371,7 +31586,7 @@
       <c r="AD135" s="3"/>
       <c r="AE135" s="3"/>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <f t="shared" ref="A136:A199" si="14">DATE(2009,1,1)+B136-1+C136/24+D136/24/60</f>
         <v>40031.6875</v>
@@ -31459,7 +31674,7 @@
       <c r="AD136" s="3"/>
       <c r="AE136" s="3"/>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <f t="shared" si="14"/>
         <v>40031.708333333336</v>
@@ -31547,7 +31762,7 @@
       <c r="AD137" s="3"/>
       <c r="AE137" s="3"/>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <f t="shared" si="14"/>
         <v>40031.729166666672</v>
@@ -31635,7 +31850,7 @@
       <c r="AD138" s="3"/>
       <c r="AE138" s="3"/>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <f t="shared" si="14"/>
         <v>40031.75</v>
@@ -31723,7 +31938,7 @@
       <c r="AD139" s="3"/>
       <c r="AE139" s="3"/>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <f t="shared" si="14"/>
         <v>40031.770833333336</v>
@@ -31811,7 +32026,7 @@
       <c r="AD140" s="3"/>
       <c r="AE140" s="3"/>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <f t="shared" si="14"/>
         <v>40031.791666666664</v>
@@ -31899,7 +32114,7 @@
       <c r="AD141" s="3"/>
       <c r="AE141" s="3"/>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <f t="shared" si="14"/>
         <v>40031.8125</v>
@@ -31987,7 +32202,7 @@
       <c r="AD142" s="3"/>
       <c r="AE142" s="3"/>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <f t="shared" si="14"/>
         <v>40031.833333333336</v>
@@ -32075,7 +32290,7 @@
       <c r="AD143" s="3"/>
       <c r="AE143" s="3"/>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <f t="shared" si="14"/>
         <v>40031.854166666672</v>
@@ -32163,7 +32378,7 @@
       <c r="AD144" s="3"/>
       <c r="AE144" s="3"/>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <f t="shared" si="14"/>
         <v>40031.875</v>
@@ -32251,7 +32466,7 @@
       <c r="AD145" s="3"/>
       <c r="AE145" s="3"/>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <f t="shared" si="14"/>
         <v>40031.895833333336</v>
@@ -32339,7 +32554,7 @@
       <c r="AD146" s="3"/>
       <c r="AE146" s="3"/>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <f t="shared" si="14"/>
         <v>40031.916666666664</v>
@@ -32427,7 +32642,7 @@
       <c r="AD147" s="3"/>
       <c r="AE147" s="3"/>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <f t="shared" si="14"/>
         <v>40031.9375</v>
@@ -32515,7 +32730,7 @@
       <c r="AD148" s="3"/>
       <c r="AE148" s="3"/>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <f t="shared" si="14"/>
         <v>40031.958333333336</v>
@@ -32603,7 +32818,7 @@
       <c r="AD149" s="3"/>
       <c r="AE149" s="3"/>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <f t="shared" si="14"/>
         <v>40031.979166666672</v>
@@ -32691,7 +32906,7 @@
       <c r="AD150" s="3"/>
       <c r="AE150" s="3"/>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <f t="shared" si="14"/>
         <v>40032</v>
@@ -32779,7 +32994,7 @@
       <c r="AD151" s="3"/>
       <c r="AE151" s="3"/>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <f t="shared" si="14"/>
         <v>40032.020833333336</v>
@@ -32867,7 +33082,7 @@
       <c r="AD152" s="3"/>
       <c r="AE152" s="3"/>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <f t="shared" si="14"/>
         <v>40032.041666666664</v>
@@ -32955,7 +33170,7 @@
       <c r="AD153" s="3"/>
       <c r="AE153" s="3"/>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <f t="shared" si="14"/>
         <v>40032.0625</v>
@@ -33043,7 +33258,7 @@
       <c r="AD154" s="3"/>
       <c r="AE154" s="3"/>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <f t="shared" si="14"/>
         <v>40032.083333333336</v>
@@ -33131,7 +33346,7 @@
       <c r="AD155" s="3"/>
       <c r="AE155" s="3"/>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <f t="shared" si="14"/>
         <v>40032.104166666672</v>
@@ -33219,7 +33434,7 @@
       <c r="AD156" s="3"/>
       <c r="AE156" s="3"/>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <f t="shared" si="14"/>
         <v>40032.125</v>
@@ -33307,7 +33522,7 @@
       <c r="AD157" s="3"/>
       <c r="AE157" s="3"/>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <f t="shared" si="14"/>
         <v>40032.145833333336</v>
@@ -33395,7 +33610,7 @@
       <c r="AD158" s="3"/>
       <c r="AE158" s="3"/>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <f t="shared" si="14"/>
         <v>40032.166666666664</v>
@@ -33483,7 +33698,7 @@
       <c r="AD159" s="3"/>
       <c r="AE159" s="3"/>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <f t="shared" si="14"/>
         <v>40032.1875</v>
@@ -33571,7 +33786,7 @@
       <c r="AD160" s="3"/>
       <c r="AE160" s="3"/>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <f t="shared" si="14"/>
         <v>40032.208333333336</v>
@@ -33659,7 +33874,7 @@
       <c r="AD161" s="3"/>
       <c r="AE161" s="3"/>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <f t="shared" si="14"/>
         <v>40032.229166666672</v>
@@ -33747,7 +33962,7 @@
       <c r="AD162" s="3"/>
       <c r="AE162" s="3"/>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <f t="shared" si="14"/>
         <v>40032.25</v>
@@ -33835,7 +34050,7 @@
       <c r="AD163" s="3"/>
       <c r="AE163" s="3"/>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <f t="shared" si="14"/>
         <v>40032.270833333336</v>
@@ -33923,7 +34138,7 @@
       <c r="AD164" s="3"/>
       <c r="AE164" s="3"/>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <f t="shared" si="14"/>
         <v>40032.291666666664</v>
@@ -34011,7 +34226,7 @@
       <c r="AD165" s="3"/>
       <c r="AE165" s="3"/>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <f t="shared" si="14"/>
         <v>40032.3125</v>
@@ -34099,7 +34314,7 @@
       <c r="AD166" s="3"/>
       <c r="AE166" s="3"/>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <f t="shared" si="14"/>
         <v>40032.333333333336</v>
@@ -34187,7 +34402,7 @@
       <c r="AD167" s="3"/>
       <c r="AE167" s="3"/>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <f t="shared" si="14"/>
         <v>40032.354166666672</v>
@@ -34275,7 +34490,7 @@
       <c r="AD168" s="3"/>
       <c r="AE168" s="3"/>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <f t="shared" si="14"/>
         <v>40032.375</v>
@@ -34363,7 +34578,7 @@
       <c r="AD169" s="3"/>
       <c r="AE169" s="3"/>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <f t="shared" si="14"/>
         <v>40032.395833333336</v>
@@ -34451,7 +34666,7 @@
       <c r="AD170" s="3"/>
       <c r="AE170" s="3"/>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <f t="shared" si="14"/>
         <v>40032.416666666664</v>
@@ -34539,7 +34754,7 @@
       <c r="AD171" s="3"/>
       <c r="AE171" s="3"/>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <f t="shared" si="14"/>
         <v>40032.4375</v>
@@ -34627,7 +34842,7 @@
       <c r="AD172" s="3"/>
       <c r="AE172" s="3"/>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
         <f t="shared" si="14"/>
         <v>40032.458333333336</v>
@@ -34715,7 +34930,7 @@
       <c r="AD173" s="3"/>
       <c r="AE173" s="3"/>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <f t="shared" si="14"/>
         <v>40032.479166666672</v>
@@ -34803,7 +35018,7 @@
       <c r="AD174" s="3"/>
       <c r="AE174" s="3"/>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <f t="shared" si="14"/>
         <v>40032.5</v>
@@ -34891,7 +35106,7 @@
       <c r="AD175" s="3"/>
       <c r="AE175" s="3"/>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <f t="shared" si="14"/>
         <v>40032.520833333336</v>
@@ -34979,7 +35194,7 @@
       <c r="AD176" s="3"/>
       <c r="AE176" s="3"/>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <f t="shared" si="14"/>
         <v>40032.541666666664</v>
@@ -35067,7 +35282,7 @@
       <c r="AD177" s="3"/>
       <c r="AE177" s="3"/>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <f t="shared" si="14"/>
         <v>40032.5625</v>
@@ -35155,7 +35370,7 @@
       <c r="AD178" s="3"/>
       <c r="AE178" s="3"/>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <f t="shared" si="14"/>
         <v>40032.583333333336</v>
@@ -35243,7 +35458,7 @@
       <c r="AD179" s="3"/>
       <c r="AE179" s="3"/>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <f t="shared" si="14"/>
         <v>40032.604166666672</v>
@@ -35331,7 +35546,7 @@
       <c r="AD180" s="3"/>
       <c r="AE180" s="3"/>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
         <f t="shared" si="14"/>
         <v>40032.625</v>
@@ -35419,7 +35634,7 @@
       <c r="AD181" s="3"/>
       <c r="AE181" s="3"/>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
         <f t="shared" si="14"/>
         <v>40032.645833333336</v>
@@ -35507,7 +35722,7 @@
       <c r="AD182" s="3"/>
       <c r="AE182" s="3"/>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <f t="shared" si="14"/>
         <v>40032.666666666664</v>
@@ -35582,7 +35797,7 @@
       <c r="AD183" s="3"/>
       <c r="AE183" s="3"/>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <f t="shared" si="14"/>
         <v>40032.6875</v>
@@ -35662,7 +35877,7 @@
       <c r="AD184" s="3"/>
       <c r="AE184" s="3"/>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <f t="shared" si="14"/>
         <v>40032.708333333336</v>
@@ -35737,7 +35952,7 @@
       <c r="AD185" s="3"/>
       <c r="AE185" s="3"/>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <f t="shared" si="14"/>
         <v>40032.729166666672</v>
@@ -35802,7 +36017,7 @@
       <c r="AD186" s="3"/>
       <c r="AE186" s="3"/>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <f t="shared" si="14"/>
         <v>40032.75</v>
@@ -35867,7 +36082,7 @@
       <c r="AD187" s="3"/>
       <c r="AE187" s="3"/>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <f t="shared" si="14"/>
         <v>40032.770833333336</v>
@@ -35932,7 +36147,7 @@
       <c r="AD188" s="3"/>
       <c r="AE188" s="3"/>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <f t="shared" si="14"/>
         <v>40032.791666666664</v>
@@ -35997,7 +36212,7 @@
       <c r="AD189" s="3"/>
       <c r="AE189" s="3"/>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <f t="shared" si="14"/>
         <v>40032.8125</v>
@@ -36062,7 +36277,7 @@
       <c r="AD190" s="3"/>
       <c r="AE190" s="3"/>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <f t="shared" si="14"/>
         <v>40032.833333333336</v>
@@ -36127,7 +36342,7 @@
       <c r="AD191" s="3"/>
       <c r="AE191" s="3"/>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <f t="shared" si="14"/>
         <v>40032.854166666672</v>
@@ -36192,7 +36407,7 @@
       <c r="AD192" s="3"/>
       <c r="AE192" s="3"/>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <f t="shared" si="14"/>
         <v>40032.875</v>
@@ -36257,7 +36472,7 @@
       <c r="AD193" s="3"/>
       <c r="AE193" s="3"/>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <f t="shared" si="14"/>
         <v>40032.895833333336</v>
@@ -36322,7 +36537,7 @@
       <c r="AD194" s="3"/>
       <c r="AE194" s="3"/>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <f t="shared" si="14"/>
         <v>40032.916666666664</v>
@@ -36387,7 +36602,7 @@
       <c r="AD195" s="3"/>
       <c r="AE195" s="3"/>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <f t="shared" si="14"/>
         <v>40032.9375</v>
@@ -36452,7 +36667,7 @@
       <c r="AD196" s="3"/>
       <c r="AE196" s="3"/>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <f t="shared" si="14"/>
         <v>40032.958333333336</v>
@@ -36517,7 +36732,7 @@
       <c r="AD197" s="3"/>
       <c r="AE197" s="3"/>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <f t="shared" si="14"/>
         <v>40032.979166666672</v>
@@ -36582,7 +36797,7 @@
       <c r="AD198" s="3"/>
       <c r="AE198" s="3"/>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <f t="shared" si="14"/>
         <v>40033</v>
@@ -36647,7 +36862,7 @@
       <c r="AD199" s="3"/>
       <c r="AE199" s="3"/>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <f t="shared" ref="A200:A263" si="20">DATE(2009,1,1)+B200-1+C200/24+D200/24/60</f>
         <v>40033.020833333336</v>
@@ -36727,7 +36942,7 @@
       <c r="AD200" s="3"/>
       <c r="AE200" s="3"/>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <f t="shared" si="20"/>
         <v>40033.041666666664</v>
@@ -36815,7 +37030,7 @@
       <c r="AD201" s="3"/>
       <c r="AE201" s="3"/>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <f t="shared" si="20"/>
         <v>40033.0625</v>
@@ -36903,7 +37118,7 @@
       <c r="AD202" s="3"/>
       <c r="AE202" s="3"/>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <f t="shared" si="20"/>
         <v>40033.083333333336</v>
@@ -36983,7 +37198,7 @@
       <c r="AD203" s="3"/>
       <c r="AE203" s="3"/>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <f t="shared" si="20"/>
         <v>40033.104166666672</v>
@@ -37063,7 +37278,7 @@
       <c r="AD204" s="3"/>
       <c r="AE204" s="3"/>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <f t="shared" si="20"/>
         <v>40033.125</v>
@@ -37143,7 +37358,7 @@
       <c r="AD205" s="3"/>
       <c r="AE205" s="3"/>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <f t="shared" si="20"/>
         <v>40033.145833333336</v>
@@ -37223,7 +37438,7 @@
       <c r="AD206" s="3"/>
       <c r="AE206" s="3"/>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <f t="shared" si="20"/>
         <v>40033.166666666664</v>
@@ -37303,7 +37518,7 @@
       <c r="AD207" s="3"/>
       <c r="AE207" s="3"/>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <f t="shared" si="20"/>
         <v>40033.1875</v>
@@ -37383,7 +37598,7 @@
       <c r="AD208" s="3"/>
       <c r="AE208" s="3"/>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <f t="shared" si="20"/>
         <v>40033.208333333336</v>
@@ -37463,7 +37678,7 @@
       <c r="AD209" s="3"/>
       <c r="AE209" s="3"/>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <f t="shared" si="20"/>
         <v>40033.229166666672</v>
@@ -37543,7 +37758,7 @@
       <c r="AD210" s="3"/>
       <c r="AE210" s="3"/>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <f t="shared" si="20"/>
         <v>40033.25</v>
@@ -37623,7 +37838,7 @@
       <c r="AD211" s="3"/>
       <c r="AE211" s="3"/>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <f t="shared" si="20"/>
         <v>40033.270833333336</v>
@@ -37703,7 +37918,7 @@
       <c r="AD212" s="3"/>
       <c r="AE212" s="3"/>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <f t="shared" si="20"/>
         <v>40033.291666666664</v>
@@ -37783,7 +37998,7 @@
       <c r="AD213" s="3"/>
       <c r="AE213" s="3"/>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <f t="shared" si="20"/>
         <v>40033.3125</v>
@@ -37861,7 +38076,7 @@
       <c r="AD214" s="3"/>
       <c r="AE214" s="3"/>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <f t="shared" si="20"/>
         <v>40033.333333333336</v>
@@ -37949,7 +38164,7 @@
       <c r="AD215" s="3"/>
       <c r="AE215" s="3"/>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <f t="shared" si="20"/>
         <v>40033.354166666672</v>
@@ -38037,7 +38252,7 @@
       <c r="AD216" s="3"/>
       <c r="AE216" s="3"/>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <f t="shared" si="20"/>
         <v>40033.375</v>
@@ -38125,7 +38340,7 @@
       <c r="AD217" s="3"/>
       <c r="AE217" s="3"/>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <f t="shared" si="20"/>
         <v>40033.395833333336</v>
@@ -38213,7 +38428,7 @@
       <c r="AD218" s="3"/>
       <c r="AE218" s="3"/>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <f t="shared" si="20"/>
         <v>40033.416666666664</v>
@@ -38301,7 +38516,7 @@
       <c r="AD219" s="3"/>
       <c r="AE219" s="3"/>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <f t="shared" si="20"/>
         <v>40033.4375</v>
@@ -38389,7 +38604,7 @@
       <c r="AD220" s="3"/>
       <c r="AE220" s="3"/>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <f t="shared" si="20"/>
         <v>40033.458333333336</v>
@@ -38477,7 +38692,7 @@
       <c r="AD221" s="3"/>
       <c r="AE221" s="3"/>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <f t="shared" si="20"/>
         <v>40033.479166666672</v>
@@ -38565,7 +38780,7 @@
       <c r="AD222" s="3"/>
       <c r="AE222" s="3"/>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <f t="shared" si="20"/>
         <v>40033.5</v>
@@ -38653,7 +38868,7 @@
       <c r="AD223" s="3"/>
       <c r="AE223" s="3"/>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <f t="shared" si="20"/>
         <v>40033.520833333336</v>
@@ -38741,7 +38956,7 @@
       <c r="AD224" s="3"/>
       <c r="AE224" s="3"/>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <f t="shared" si="20"/>
         <v>40033.541666666664</v>
@@ -38829,7 +39044,7 @@
       <c r="AD225" s="3"/>
       <c r="AE225" s="3"/>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <f t="shared" si="20"/>
         <v>40033.5625</v>
@@ -38917,7 +39132,7 @@
       <c r="AD226" s="3"/>
       <c r="AE226" s="3"/>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <f t="shared" si="20"/>
         <v>40033.583333333336</v>
@@ -39005,7 +39220,7 @@
       <c r="AD227" s="3"/>
       <c r="AE227" s="3"/>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <f t="shared" si="20"/>
         <v>40033.604166666672</v>
@@ -39093,7 +39308,7 @@
       <c r="AD228" s="3"/>
       <c r="AE228" s="3"/>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <f t="shared" si="20"/>
         <v>40033.625</v>
@@ -39181,7 +39396,7 @@
       <c r="AD229" s="3"/>
       <c r="AE229" s="3"/>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
         <f t="shared" si="20"/>
         <v>40033.645833333336</v>
@@ -39269,7 +39484,7 @@
       <c r="AD230" s="3"/>
       <c r="AE230" s="3"/>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
         <f t="shared" si="20"/>
         <v>40033.666666666664</v>
@@ -39357,7 +39572,7 @@
       <c r="AD231" s="3"/>
       <c r="AE231" s="3"/>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
         <f t="shared" si="20"/>
         <v>40033.6875</v>
@@ -39445,7 +39660,7 @@
       <c r="AD232" s="3"/>
       <c r="AE232" s="3"/>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
         <f t="shared" si="20"/>
         <v>40033.708333333336</v>
@@ -39533,7 +39748,7 @@
       <c r="AD233" s="3"/>
       <c r="AE233" s="3"/>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
         <f t="shared" si="20"/>
         <v>40033.729166666672</v>
@@ -39621,7 +39836,7 @@
       <c r="AD234" s="3"/>
       <c r="AE234" s="3"/>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
         <f t="shared" si="20"/>
         <v>40033.75</v>
@@ -39709,7 +39924,7 @@
       <c r="AD235" s="3"/>
       <c r="AE235" s="3"/>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A236" s="7">
         <f t="shared" si="20"/>
         <v>40033.770833333336</v>
@@ -39797,7 +40012,7 @@
       <c r="AD236" s="3"/>
       <c r="AE236" s="3"/>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <f t="shared" si="20"/>
         <v>40033.791666666664</v>
@@ -39885,7 +40100,7 @@
       <c r="AD237" s="3"/>
       <c r="AE237" s="3"/>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A238" s="7">
         <f t="shared" si="20"/>
         <v>40033.8125</v>
@@ -39973,7 +40188,7 @@
       <c r="AD238" s="3"/>
       <c r="AE238" s="3"/>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
         <f t="shared" si="20"/>
         <v>40033.833333333336</v>
@@ -40061,7 +40276,7 @@
       <c r="AD239" s="3"/>
       <c r="AE239" s="3"/>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A240" s="7">
         <f t="shared" si="20"/>
         <v>40033.854166666672</v>
@@ -40149,7 +40364,7 @@
       <c r="AD240" s="3"/>
       <c r="AE240" s="3"/>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
         <f t="shared" si="20"/>
         <v>40033.875</v>
@@ -40237,7 +40452,7 @@
       <c r="AD241" s="3"/>
       <c r="AE241" s="3"/>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A242" s="7">
         <f t="shared" si="20"/>
         <v>40033.895833333336</v>
@@ -40325,7 +40540,7 @@
       <c r="AD242" s="3"/>
       <c r="AE242" s="3"/>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
         <f t="shared" si="20"/>
         <v>40033.916666666664</v>
@@ -40413,7 +40628,7 @@
       <c r="AD243" s="3"/>
       <c r="AE243" s="3"/>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A244" s="7">
         <f t="shared" si="20"/>
         <v>40033.9375</v>
@@ -40501,7 +40716,7 @@
       <c r="AD244" s="3"/>
       <c r="AE244" s="3"/>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
         <f t="shared" si="20"/>
         <v>40033.958333333336</v>
@@ -40589,7 +40804,7 @@
       <c r="AD245" s="3"/>
       <c r="AE245" s="3"/>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A246" s="7">
         <f t="shared" si="20"/>
         <v>40033.979166666672</v>
@@ -40673,7 +40888,7 @@
       <c r="AD246" s="3"/>
       <c r="AE246" s="3"/>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
         <f t="shared" si="20"/>
         <v>40034</v>
@@ -40757,7 +40972,7 @@
       <c r="AD247" s="3"/>
       <c r="AE247" s="3"/>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A248" s="7">
         <f t="shared" si="20"/>
         <v>40034.020833333336</v>
@@ -40841,7 +41056,7 @@
       <c r="AD248" s="3"/>
       <c r="AE248" s="3"/>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A249" s="7">
         <f t="shared" si="20"/>
         <v>40034.041666666664</v>
@@ -40925,7 +41140,7 @@
       <c r="AD249" s="3"/>
       <c r="AE249" s="3"/>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A250" s="7">
         <f t="shared" si="20"/>
         <v>40034.0625</v>
@@ -41009,7 +41224,7 @@
       <c r="AD250" s="3"/>
       <c r="AE250" s="3"/>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A251" s="7">
         <f t="shared" si="20"/>
         <v>40034.083333333336</v>
@@ -41093,7 +41308,7 @@
       <c r="AD251" s="3"/>
       <c r="AE251" s="3"/>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A252" s="7">
         <f t="shared" si="20"/>
         <v>40034.104166666672</v>
@@ -41177,7 +41392,7 @@
       <c r="AD252" s="3"/>
       <c r="AE252" s="3"/>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A253" s="7">
         <f t="shared" si="20"/>
         <v>40034.125</v>
@@ -41261,7 +41476,7 @@
       <c r="AD253" s="3"/>
       <c r="AE253" s="3"/>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A254" s="7">
         <f t="shared" si="20"/>
         <v>40034.145833333336</v>
@@ -41345,7 +41560,7 @@
       <c r="AD254" s="3"/>
       <c r="AE254" s="3"/>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A255" s="7">
         <f t="shared" si="20"/>
         <v>40034.166666666664</v>
@@ -41429,7 +41644,7 @@
       <c r="AD255" s="3"/>
       <c r="AE255" s="3"/>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A256" s="7">
         <f t="shared" si="20"/>
         <v>40034.1875</v>
@@ -41513,7 +41728,7 @@
       <c r="AD256" s="3"/>
       <c r="AE256" s="3"/>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
         <f t="shared" si="20"/>
         <v>40034.208333333336</v>
@@ -41597,7 +41812,7 @@
       <c r="AD257" s="3"/>
       <c r="AE257" s="3"/>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
         <f t="shared" si="20"/>
         <v>40034.229166666672</v>
@@ -41681,7 +41896,7 @@
       <c r="AD258" s="3"/>
       <c r="AE258" s="3"/>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
         <f t="shared" si="20"/>
         <v>40034.25</v>
@@ -41769,7 +41984,7 @@
       <c r="AD259" s="3"/>
       <c r="AE259" s="3"/>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
         <f t="shared" si="20"/>
         <v>40034.270833333336</v>
@@ -41857,7 +42072,7 @@
       <c r="AD260" s="3"/>
       <c r="AE260" s="3"/>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
         <f t="shared" si="20"/>
         <v>40034.291666666664</v>
@@ -41945,7 +42160,7 @@
       <c r="AD261" s="3"/>
       <c r="AE261" s="3"/>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
         <f t="shared" si="20"/>
         <v>40034.3125</v>
@@ -42033,7 +42248,7 @@
       <c r="AD262" s="3"/>
       <c r="AE262" s="3"/>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
         <f t="shared" si="20"/>
         <v>40034.333333333336</v>
@@ -42121,7 +42336,7 @@
       <c r="AD263" s="3"/>
       <c r="AE263" s="3"/>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
         <f t="shared" ref="A264:A327" si="26">DATE(2009,1,1)+B264-1+C264/24+D264/24/60</f>
         <v>40034.354166666672</v>
@@ -42209,7 +42424,7 @@
       <c r="AD264" s="3"/>
       <c r="AE264" s="3"/>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
         <f t="shared" si="26"/>
         <v>40034.375</v>
@@ -42297,7 +42512,7 @@
       <c r="AD265" s="3"/>
       <c r="AE265" s="3"/>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
         <f t="shared" si="26"/>
         <v>40034.395833333336</v>
@@ -42385,7 +42600,7 @@
       <c r="AD266" s="3"/>
       <c r="AE266" s="3"/>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
         <f t="shared" si="26"/>
         <v>40034.416666666664</v>
@@ -42473,7 +42688,7 @@
       <c r="AD267" s="3"/>
       <c r="AE267" s="3"/>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
         <f t="shared" si="26"/>
         <v>40034.4375</v>
@@ -42561,7 +42776,7 @@
       <c r="AD268" s="3"/>
       <c r="AE268" s="3"/>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
         <f t="shared" si="26"/>
         <v>40034.458333333336</v>
@@ -42649,7 +42864,7 @@
       <c r="AD269" s="3"/>
       <c r="AE269" s="3"/>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A270" s="7">
         <f t="shared" si="26"/>
         <v>40034.479166666672</v>
@@ -42737,7 +42952,7 @@
       <c r="AD270" s="3"/>
       <c r="AE270" s="3"/>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A271" s="7">
         <f t="shared" si="26"/>
         <v>40034.5</v>
@@ -42825,7 +43040,7 @@
       <c r="AD271" s="3"/>
       <c r="AE271" s="3"/>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A272" s="7">
         <f t="shared" si="26"/>
         <v>40034.520833333336</v>
@@ -42913,7 +43128,7 @@
       <c r="AD272" s="3"/>
       <c r="AE272" s="3"/>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
         <f t="shared" si="26"/>
         <v>40034.541666666664</v>
@@ -43001,7 +43216,7 @@
       <c r="AD273" s="3"/>
       <c r="AE273" s="3"/>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A274" s="7">
         <f t="shared" si="26"/>
         <v>40034.5625</v>
@@ -43089,7 +43304,7 @@
       <c r="AD274" s="3"/>
       <c r="AE274" s="3"/>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A275" s="7">
         <f t="shared" si="26"/>
         <v>40034.583333333336</v>
@@ -43177,7 +43392,7 @@
       <c r="AD275" s="3"/>
       <c r="AE275" s="3"/>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A276" s="7">
         <f t="shared" si="26"/>
         <v>40034.604166666672</v>
@@ -43265,7 +43480,7 @@
       <c r="AD276" s="3"/>
       <c r="AE276" s="3"/>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A277" s="7">
         <f t="shared" si="26"/>
         <v>40034.625</v>
@@ -43353,7 +43568,7 @@
       <c r="AD277" s="3"/>
       <c r="AE277" s="3"/>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A278" s="7">
         <f t="shared" si="26"/>
         <v>40034.645833333336</v>
@@ -43441,7 +43656,7 @@
       <c r="AD278" s="3"/>
       <c r="AE278" s="3"/>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A279" s="7">
         <f t="shared" si="26"/>
         <v>40034.666666666664</v>
@@ -43529,7 +43744,7 @@
       <c r="AD279" s="3"/>
       <c r="AE279" s="3"/>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A280" s="7">
         <f t="shared" si="26"/>
         <v>40034.6875</v>
@@ -43617,7 +43832,7 @@
       <c r="AD280" s="3"/>
       <c r="AE280" s="3"/>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A281" s="7">
         <f t="shared" si="26"/>
         <v>40034.708333333336</v>
@@ -43705,7 +43920,7 @@
       <c r="AD281" s="3"/>
       <c r="AE281" s="3"/>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A282" s="7">
         <f t="shared" si="26"/>
         <v>40034.729166666672</v>
@@ -43793,7 +44008,7 @@
       <c r="AD282" s="3"/>
       <c r="AE282" s="3"/>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A283" s="7">
         <f t="shared" si="26"/>
         <v>40034.75</v>
@@ -43881,7 +44096,7 @@
       <c r="AD283" s="3"/>
       <c r="AE283" s="3"/>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A284" s="7">
         <f t="shared" si="26"/>
         <v>40034.770833333336</v>
@@ -43969,7 +44184,7 @@
       <c r="AD284" s="3"/>
       <c r="AE284" s="3"/>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A285" s="7">
         <f t="shared" si="26"/>
         <v>40034.791666666664</v>
@@ -44057,7 +44272,7 @@
       <c r="AD285" s="3"/>
       <c r="AE285" s="3"/>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A286" s="7">
         <f t="shared" si="26"/>
         <v>40034.8125</v>
@@ -44145,7 +44360,7 @@
       <c r="AD286" s="3"/>
       <c r="AE286" s="3"/>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A287" s="7">
         <f t="shared" si="26"/>
         <v>40034.833333333336</v>
@@ -44233,7 +44448,7 @@
       <c r="AD287" s="3"/>
       <c r="AE287" s="3"/>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A288" s="7">
         <f t="shared" si="26"/>
         <v>40034.854166666672</v>
@@ -44321,7 +44536,7 @@
       <c r="AD288" s="3"/>
       <c r="AE288" s="3"/>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
         <f t="shared" si="26"/>
         <v>40034.875</v>
@@ -44409,7 +44624,7 @@
       <c r="AD289" s="3"/>
       <c r="AE289" s="3"/>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A290" s="7">
         <f t="shared" si="26"/>
         <v>40034.895833333336</v>
@@ -44497,7 +44712,7 @@
       <c r="AD290" s="3"/>
       <c r="AE290" s="3"/>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A291" s="7">
         <f t="shared" si="26"/>
         <v>40034.916666666664</v>
@@ -44585,7 +44800,7 @@
       <c r="AD291" s="3"/>
       <c r="AE291" s="3"/>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A292" s="7">
         <f t="shared" si="26"/>
         <v>40034.9375</v>
@@ -44673,7 +44888,7 @@
       <c r="AD292" s="3"/>
       <c r="AE292" s="3"/>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A293" s="7">
         <f t="shared" si="26"/>
         <v>40034.958333333336</v>
@@ -44761,7 +44976,7 @@
       <c r="AD293" s="3"/>
       <c r="AE293" s="3"/>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A294" s="7">
         <f t="shared" si="26"/>
         <v>40034.979166666672</v>
@@ -44849,7 +45064,7 @@
       <c r="AD294" s="3"/>
       <c r="AE294" s="3"/>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A295" s="7">
         <f t="shared" si="26"/>
         <v>40035</v>
@@ -44937,7 +45152,7 @@
       <c r="AD295" s="3"/>
       <c r="AE295" s="3"/>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A296" s="7">
         <f t="shared" si="26"/>
         <v>40035.020833333336</v>
@@ -45025,7 +45240,7 @@
       <c r="AD296" s="3"/>
       <c r="AE296" s="3"/>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A297" s="7">
         <f t="shared" si="26"/>
         <v>40035.041666666664</v>
@@ -45113,7 +45328,7 @@
       <c r="AD297" s="3"/>
       <c r="AE297" s="3"/>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A298" s="7">
         <f t="shared" si="26"/>
         <v>40035.0625</v>
@@ -45201,7 +45416,7 @@
       <c r="AD298" s="3"/>
       <c r="AE298" s="3"/>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A299" s="7">
         <f t="shared" si="26"/>
         <v>40035.083333333336</v>
@@ -45289,7 +45504,7 @@
       <c r="AD299" s="3"/>
       <c r="AE299" s="3"/>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A300" s="7">
         <f t="shared" si="26"/>
         <v>40035.104166666672</v>
@@ -45377,7 +45592,7 @@
       <c r="AD300" s="3"/>
       <c r="AE300" s="3"/>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A301" s="7">
         <f t="shared" si="26"/>
         <v>40035.125</v>
@@ -45465,7 +45680,7 @@
       <c r="AD301" s="3"/>
       <c r="AE301" s="3"/>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A302" s="7">
         <f t="shared" si="26"/>
         <v>40035.145833333336</v>
@@ -45553,7 +45768,7 @@
       <c r="AD302" s="3"/>
       <c r="AE302" s="3"/>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A303" s="7">
         <f t="shared" si="26"/>
         <v>40035.166666666664</v>
@@ -45633,7 +45848,7 @@
       <c r="AD303" s="3"/>
       <c r="AE303" s="3"/>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A304" s="7">
         <f t="shared" si="26"/>
         <v>40035.1875</v>
@@ -45713,7 +45928,7 @@
       <c r="AD304" s="3"/>
       <c r="AE304" s="3"/>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A305" s="7">
         <f t="shared" si="26"/>
         <v>40035.208333333336</v>
@@ -45793,7 +46008,7 @@
       <c r="AD305" s="3"/>
       <c r="AE305" s="3"/>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A306" s="7">
         <f t="shared" si="26"/>
         <v>40035.229166666672</v>
@@ -45873,7 +46088,7 @@
       <c r="AD306" s="3"/>
       <c r="AE306" s="3"/>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A307" s="7">
         <f t="shared" si="26"/>
         <v>40035.25</v>
@@ -45953,7 +46168,7 @@
       <c r="AD307" s="3"/>
       <c r="AE307" s="3"/>
     </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A308" s="7">
         <f t="shared" si="26"/>
         <v>40035.270833333336</v>
@@ -46041,7 +46256,7 @@
       <c r="AD308" s="3"/>
       <c r="AE308" s="3"/>
     </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A309" s="7">
         <f t="shared" si="26"/>
         <v>40035.291666666664</v>
@@ -46129,7 +46344,7 @@
       <c r="AD309" s="3"/>
       <c r="AE309" s="3"/>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A310" s="7">
         <f t="shared" si="26"/>
         <v>40035.3125</v>
@@ -46217,7 +46432,7 @@
       <c r="AD310" s="3"/>
       <c r="AE310" s="3"/>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A311" s="7">
         <f t="shared" si="26"/>
         <v>40035.333333333336</v>
@@ -46305,7 +46520,7 @@
       <c r="AD311" s="3"/>
       <c r="AE311" s="3"/>
     </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A312" s="7">
         <f t="shared" si="26"/>
         <v>40035.354166666672</v>
@@ -46393,7 +46608,7 @@
       <c r="AD312" s="3"/>
       <c r="AE312" s="3"/>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A313" s="7">
         <f t="shared" si="26"/>
         <v>40035.375</v>
@@ -46481,7 +46696,7 @@
       <c r="AD313" s="3"/>
       <c r="AE313" s="3"/>
     </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A314" s="7">
         <f t="shared" si="26"/>
         <v>40035.395833333336</v>
@@ -46569,7 +46784,7 @@
       <c r="AD314" s="3"/>
       <c r="AE314" s="3"/>
     </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A315" s="7">
         <f t="shared" si="26"/>
         <v>40035.416666666664</v>
@@ -46657,7 +46872,7 @@
       <c r="AD315" s="3"/>
       <c r="AE315" s="3"/>
     </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A316" s="7">
         <f t="shared" si="26"/>
         <v>40035.4375</v>
@@ -46745,7 +46960,7 @@
       <c r="AD316" s="3"/>
       <c r="AE316" s="3"/>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A317" s="7">
         <f t="shared" si="26"/>
         <v>40035.458333333336</v>
@@ -46833,7 +47048,7 @@
       <c r="AD317" s="3"/>
       <c r="AE317" s="3"/>
     </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A318" s="7">
         <f t="shared" si="26"/>
         <v>40035.479166666672</v>
@@ -46921,7 +47136,7 @@
       <c r="AD318" s="3"/>
       <c r="AE318" s="3"/>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A319" s="7">
         <f t="shared" si="26"/>
         <v>40035.5</v>
@@ -47009,7 +47224,7 @@
       <c r="AD319" s="3"/>
       <c r="AE319" s="3"/>
     </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A320" s="7">
         <f t="shared" si="26"/>
         <v>40035.520833333336</v>
@@ -47097,7 +47312,7 @@
       <c r="AD320" s="3"/>
       <c r="AE320" s="3"/>
     </row>
-    <row r="321" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A321" s="7">
         <f t="shared" si="26"/>
         <v>40035.541666666664</v>
@@ -47185,7 +47400,7 @@
       <c r="AD321" s="3"/>
       <c r="AE321" s="3"/>
     </row>
-    <row r="322" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A322" s="7">
         <f t="shared" si="26"/>
         <v>40035.5625</v>
@@ -47273,7 +47488,7 @@
       <c r="AD322" s="3"/>
       <c r="AE322" s="3"/>
     </row>
-    <row r="323" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A323" s="7">
         <f t="shared" si="26"/>
         <v>40035.583333333336</v>
@@ -47361,7 +47576,7 @@
       <c r="AD323" s="3"/>
       <c r="AE323" s="3"/>
     </row>
-    <row r="324" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A324" s="7">
         <f t="shared" si="26"/>
         <v>40035.604166666672</v>
@@ -47449,7 +47664,7 @@
       <c r="AD324" s="3"/>
       <c r="AE324" s="3"/>
     </row>
-    <row r="325" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A325" s="7">
         <f t="shared" si="26"/>
         <v>40035.625</v>
@@ -47537,7 +47752,7 @@
       <c r="AD325" s="3"/>
       <c r="AE325" s="3"/>
     </row>
-    <row r="326" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A326" s="7">
         <f t="shared" si="26"/>
         <v>40035.645833333336</v>
@@ -47625,7 +47840,7 @@
       <c r="AD326" s="3"/>
       <c r="AE326" s="3"/>
     </row>
-    <row r="327" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A327" s="7">
         <f t="shared" si="26"/>
         <v>40035.666666666664</v>
@@ -47713,7 +47928,7 @@
       <c r="AD327" s="3"/>
       <c r="AE327" s="3"/>
     </row>
-    <row r="328" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A328" s="7">
         <f t="shared" ref="A328:A343" si="32">DATE(2009,1,1)+B328-1+C328/24+D328/24/60</f>
         <v>40035.6875</v>
@@ -47801,7 +48016,7 @@
       <c r="AD328" s="3"/>
       <c r="AE328" s="3"/>
     </row>
-    <row r="329" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A329" s="7">
         <f t="shared" si="32"/>
         <v>40035.708333333336</v>
@@ -47889,7 +48104,7 @@
       <c r="AD329" s="3"/>
       <c r="AE329" s="3"/>
     </row>
-    <row r="330" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A330" s="7">
         <f t="shared" si="32"/>
         <v>40035.729166666672</v>
@@ -47977,7 +48192,7 @@
       <c r="AD330" s="3"/>
       <c r="AE330" s="3"/>
     </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A331" s="7">
         <f t="shared" si="32"/>
         <v>40035.75</v>
@@ -48065,7 +48280,7 @@
       <c r="AD331" s="3"/>
       <c r="AE331" s="3"/>
     </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A332" s="7">
         <f t="shared" si="32"/>
         <v>40035.770833333336</v>
@@ -48153,7 +48368,7 @@
       <c r="AD332" s="3"/>
       <c r="AE332" s="3"/>
     </row>
-    <row r="333" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A333" s="7">
         <f t="shared" si="32"/>
         <v>40035.791666666664</v>
@@ -48241,7 +48456,7 @@
       <c r="AD333" s="3"/>
       <c r="AE333" s="3"/>
     </row>
-    <row r="334" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A334" s="7">
         <f t="shared" si="32"/>
         <v>40035.8125</v>
@@ -48329,7 +48544,7 @@
       <c r="AD334" s="3"/>
       <c r="AE334" s="3"/>
     </row>
-    <row r="335" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A335" s="7">
         <f t="shared" si="32"/>
         <v>40035.833333333336</v>
@@ -48417,7 +48632,7 @@
       <c r="AD335" s="3"/>
       <c r="AE335" s="3"/>
     </row>
-    <row r="336" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A336" s="7">
         <f t="shared" si="32"/>
         <v>40035.854166666672</v>
@@ -48505,7 +48720,7 @@
       <c r="AD336" s="3"/>
       <c r="AE336" s="3"/>
     </row>
-    <row r="337" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A337" s="7">
         <f t="shared" si="32"/>
         <v>40035.875</v>
@@ -48593,7 +48808,7 @@
       <c r="AD337" s="3"/>
       <c r="AE337" s="3"/>
     </row>
-    <row r="338" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A338" s="7">
         <f t="shared" si="32"/>
         <v>40035.895833333336</v>
@@ -48681,7 +48896,7 @@
       <c r="AD338" s="3"/>
       <c r="AE338" s="3"/>
     </row>
-    <row r="339" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A339" s="7">
         <f t="shared" si="32"/>
         <v>40035.916666666664</v>
@@ -48769,7 +48984,7 @@
       <c r="AD339" s="3"/>
       <c r="AE339" s="3"/>
     </row>
-    <row r="340" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A340" s="7">
         <f t="shared" si="32"/>
         <v>40035.9375</v>
@@ -48857,7 +49072,7 @@
       <c r="AD340" s="3"/>
       <c r="AE340" s="3"/>
     </row>
-    <row r="341" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A341" s="7">
         <f t="shared" si="32"/>
         <v>40035.958333333336</v>
@@ -48945,7 +49160,7 @@
       <c r="AD341" s="3"/>
       <c r="AE341" s="3"/>
     </row>
-    <row r="342" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A342" s="7">
         <f t="shared" si="32"/>
         <v>40035.979166666672</v>
@@ -49033,7 +49248,7 @@
       <c r="AD342" s="3"/>
       <c r="AE342" s="3"/>
     </row>
-    <row r="343" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A343" s="7">
         <f t="shared" si="32"/>
         <v>40036</v>
@@ -49121,7 +49336,7 @@
       <c r="AD343" s="3"/>
       <c r="AE343" s="3"/>
     </row>
-    <row r="344" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -49158,30 +49373,30 @@
       <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="16" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.26953125" customWidth="1"/>
-    <col min="26" max="26" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="16" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.21875" customWidth="1"/>
+    <col min="26" max="26" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -49195,12 +49410,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -49277,7 +49492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -49354,7 +49569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f t="shared" ref="A7" si="0">DATE(2009,1,1)+B7-1+C7/24+D7/24/60</f>
         <v>40029</v>
@@ -49438,7 +49653,7 @@
         <v>0.58036668270903913</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f t="shared" ref="A8:A71" si="1">DATE(2009,1,1)+B8-1+C8/24+D8/24/60</f>
         <v>40029.020833333336</v>
@@ -49522,7 +49737,7 @@
         <v>0.87257583206860956</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f t="shared" si="1"/>
         <v>40029.041666666664</v>
@@ -49606,7 +49821,7 @@
         <v>0.58681222194397198</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f t="shared" si="1"/>
         <v>40029.0625</v>
@@ -49690,7 +49905,7 @@
         <v>0.56612623911675475</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f t="shared" si="1"/>
         <v>40029.083333333336</v>
@@ -49774,7 +49989,7 @@
         <v>7.538063238791283E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f t="shared" si="1"/>
         <v>40029.104166666672</v>
@@ -49858,7 +50073,7 @@
         <v>0.46817322159758012</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f t="shared" si="1"/>
         <v>40029.125</v>
@@ -49942,7 +50157,7 @@
         <v>0.66901858073626408</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f t="shared" si="1"/>
         <v>40029.145833333336</v>
@@ -50026,7 +50241,7 @@
         <v>0.66108772062228904</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f t="shared" si="1"/>
         <v>40029.166666666664</v>
@@ -50110,7 +50325,7 @@
         <v>0.49188188689923079</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f t="shared" si="1"/>
         <v>40029.1875</v>
@@ -50194,7 +50409,7 @@
         <v>0.44151720221775886</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f t="shared" si="1"/>
         <v>40029.208333333336</v>
@@ -50278,7 +50493,7 @@
         <v>5.0325131989938293E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f t="shared" si="1"/>
         <v>40029.229166666672</v>
@@ -50362,7 +50577,7 @@
         <v>0.11451423514032912</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f t="shared" si="1"/>
         <v>40029.25</v>
@@ -50446,7 +50661,7 @@
         <v>0.44623069566615831</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f t="shared" si="1"/>
         <v>40029.270833333336</v>
@@ -50530,7 +50745,7 @@
         <v>0.51307028997268189</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f t="shared" si="1"/>
         <v>40029.291666666664</v>
@@ -50614,7 +50829,7 @@
         <v>0.65891202729894249</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f t="shared" si="1"/>
         <v>40029.3125</v>
@@ -50698,7 +50913,7 @@
         <v>0.78924683378350946</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f t="shared" si="1"/>
         <v>40029.333333333336</v>
@@ -50782,7 +50997,7 @@
         <v>0.81717642135064372</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f t="shared" si="1"/>
         <v>40029.354166666672</v>
@@ -50866,7 +51081,7 @@
         <v>0.91211801503906231</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f t="shared" si="1"/>
         <v>40029.375</v>
@@ -50950,7 +51165,7 @@
         <v>0.95136869309631567</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <f t="shared" si="1"/>
         <v>40029.395833333336</v>
@@ -51034,7 +51249,7 @@
         <v>1.0505403984197204</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <f t="shared" si="1"/>
         <v>40029.416666666664</v>
@@ -51118,7 +51333,7 @@
         <v>1.0178406814868981</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <f t="shared" si="1"/>
         <v>40029.4375</v>
@@ -51202,7 +51417,7 @@
         <v>1.0715089622465008</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <f t="shared" si="1"/>
         <v>40029.458333333336</v>
@@ -51286,7 +51501,7 @@
         <v>1.2770195206911417</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <f t="shared" si="1"/>
         <v>40029.479166666672</v>
@@ -51370,7 +51585,7 @@
         <v>1.0621364207999566</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <f t="shared" si="1"/>
         <v>40029.5</v>
@@ -51454,7 +51669,7 @@
         <v>1.1273981311765662</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <f t="shared" si="1"/>
         <v>40029.520833333336</v>
@@ -51538,7 +51753,7 @@
         <v>1.0062532437795344</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <f t="shared" si="1"/>
         <v>40029.541666666664</v>
@@ -51622,7 +51837,7 @@
         <v>1.0225484979656301</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <f t="shared" si="1"/>
         <v>40029.5625</v>
@@ -51706,7 +51921,7 @@
         <v>1.008246781879174</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <f t="shared" si="1"/>
         <v>40029.583333333336</v>
@@ -51790,7 +52005,7 @@
         <v>1.0275135667774986</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <f t="shared" si="1"/>
         <v>40029.604166666672</v>
@@ -51874,7 +52089,7 @@
         <v>1.0338182508353229</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <f t="shared" si="1"/>
         <v>40029.625</v>
@@ -51958,7 +52173,7 @@
         <v>1.3818106114810504</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <f t="shared" si="1"/>
         <v>40029.645833333336</v>
@@ -52042,7 +52257,7 @@
         <v>1.3944714500707236</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <f t="shared" si="1"/>
         <v>40029.666666666664</v>
@@ -52126,7 +52341,7 @@
         <v>1.1410189688385526</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <f t="shared" si="1"/>
         <v>40029.6875</v>
@@ -52210,7 +52425,7 @@
         <v>0.92044412700513123</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <f t="shared" si="1"/>
         <v>40029.708333333336</v>
@@ -52294,7 +52509,7 @@
         <v>0.93289211369396152</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <f t="shared" si="1"/>
         <v>40029.729166666672</v>
@@ -52378,7 +52593,7 @@
         <v>0.7687849858556729</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <f t="shared" si="1"/>
         <v>40029.75</v>
@@ -52462,7 +52677,7 @@
         <v>0.86558377720568425</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <f t="shared" si="1"/>
         <v>40029.770833333336</v>
@@ -52546,7 +52761,7 @@
         <v>6.1970882210345062</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <f t="shared" si="1"/>
         <v>40029.791666666664</v>
@@ -52630,7 +52845,7 @@
         <v>0.12218350587238307</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <f t="shared" si="1"/>
         <v>40029.8125</v>
@@ -52714,7 +52929,7 @@
         <v>1.3989059257861993</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <f t="shared" si="1"/>
         <v>40029.833333333336</v>
@@ -52798,7 +53013,7 @@
         <v>0.16306153878289706</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <f t="shared" si="1"/>
         <v>40029.854166666672</v>
@@ -52882,7 +53097,7 @@
         <v>0.20496919438127661</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <f t="shared" si="1"/>
         <v>40029.875</v>
@@ -52966,7 +53181,7 @@
         <v>0.13135910325557384</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <f t="shared" si="1"/>
         <v>40029.895833333336</v>
@@ -53050,7 +53265,7 @@
         <v>0.1896042561086427</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <f t="shared" si="1"/>
         <v>40029.916666666664</v>
@@ -53134,7 +53349,7 @@
         <v>8.4855805628925099E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <f t="shared" si="1"/>
         <v>40029.9375</v>
@@ -53218,7 +53433,7 @@
         <v>3.8188775726552625E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <f t="shared" si="1"/>
         <v>40029.958333333336</v>
@@ -53302,7 +53517,7 @@
         <v>5.9300639963029575E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <f t="shared" si="1"/>
         <v>40029.979166666672</v>
@@ -53386,7 +53601,7 @@
         <v>0.16712785059126706</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <f t="shared" si="1"/>
         <v>40030</v>
@@ -53470,7 +53685,7 @@
         <v>6.5890247355676446E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <f t="shared" si="1"/>
         <v>40030.020833333336</v>
@@ -53554,7 +53769,7 @@
         <v>1.6281719884018494E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <f t="shared" si="1"/>
         <v>40030.041666666664</v>
@@ -53638,7 +53853,7 @@
         <v>5.2924886785665093E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <f t="shared" si="1"/>
         <v>40030.0625</v>
@@ -53722,7 +53937,7 @@
         <v>2.0199804105496866E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <f t="shared" si="1"/>
         <v>40030.083333333336</v>
@@ -53806,7 +54021,7 @@
         <v>8.1762923855367656E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <f t="shared" si="1"/>
         <v>40030.104166666672</v>
@@ -53890,7 +54105,7 @@
         <v>1.3074081256530718E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <f t="shared" si="1"/>
         <v>40030.125</v>
@@ -53974,7 +54189,7 @@
         <v>1.4472299182649896E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <f t="shared" si="1"/>
         <v>40030.145833333336</v>
@@ -54058,7 +54273,7 @@
         <v>0.15006297105577057</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <f t="shared" si="1"/>
         <v>40030.166666666664</v>
@@ -54142,7 +54357,7 @@
         <v>1.7937329901654103E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <f t="shared" si="1"/>
         <v>40030.1875</v>
@@ -54226,7 +54441,7 @@
         <v>8.7261631473914289E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <f t="shared" si="1"/>
         <v>40030.208333333336</v>
@@ -54310,7 +54525,7 @@
         <v>4.5341167633998628E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <f t="shared" si="1"/>
         <v>40030.229166666672</v>
@@ -54394,7 +54609,7 @@
         <v>0.15794122767438906</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <f t="shared" si="1"/>
         <v>40030.25</v>
@@ -54478,7 +54693,7 @@
         <v>0.32933851829746119</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <f t="shared" si="1"/>
         <v>40030.270833333336</v>
@@ -54562,7 +54777,7 @@
         <v>0.49249314072536321</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <f t="shared" si="1"/>
         <v>40030.291666666664</v>
@@ -54646,7 +54861,7 @@
         <v>0.74984807225430106</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <f t="shared" si="1"/>
         <v>40030.3125</v>
@@ -54730,7 +54945,7 @@
         <v>0.73121342736198125</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <f t="shared" si="1"/>
         <v>40030.333333333336</v>
@@ -54814,7 +55029,7 @@
         <v>0.76896477687500708</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <f t="shared" ref="A72:A135" si="8">DATE(2009,1,1)+B72-1+C72/24+D72/24/60</f>
         <v>40030.354166666672</v>
@@ -54898,7 +55113,7 @@
         <v>1.0868752781038777</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <f t="shared" si="8"/>
         <v>40030.375</v>
@@ -54982,7 +55197,7 @@
         <v>0.96102622416521444</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <f t="shared" si="8"/>
         <v>40030.395833333336</v>
@@ -55066,7 +55281,7 @@
         <v>1.0633695597320205</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <f t="shared" si="8"/>
         <v>40030.416666666664</v>
@@ -55150,7 +55365,7 @@
         <v>0.98265292851074737</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <f t="shared" si="8"/>
         <v>40030.4375</v>
@@ -55234,7 +55449,7 @@
         <v>0.99191481818097638</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <f t="shared" si="8"/>
         <v>40030.458333333336</v>
@@ -55318,7 +55533,7 @@
         <v>1.0628651278607182</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <f t="shared" si="8"/>
         <v>40030.479166666672</v>
@@ -55402,7 +55617,7 @@
         <v>1.001161543104099</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <f t="shared" si="8"/>
         <v>40030.5</v>
@@ -55486,7 +55701,7 @@
         <v>1.1085906074799445</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <f t="shared" si="8"/>
         <v>40030.520833333336</v>
@@ -55570,7 +55785,7 @@
         <v>0.92785426174772012</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <f t="shared" si="8"/>
         <v>40030.541666666664</v>
@@ -55654,7 +55869,7 @@
         <v>1.0819019117050572</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <f t="shared" si="8"/>
         <v>40030.5625</v>
@@ -55738,7 +55953,7 @@
         <v>1.0018757578595576</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <f t="shared" si="8"/>
         <v>40030.583333333336</v>
@@ -55822,7 +56037,7 @@
         <v>1.1296504068245636</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <f t="shared" si="8"/>
         <v>40030.604166666672</v>
@@ -55906,7 +56121,7 @@
         <v>1.0789759704946904</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <f t="shared" si="8"/>
         <v>40030.625</v>
@@ -55990,7 +56205,7 @@
         <v>1.2838135722055022</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <f t="shared" si="8"/>
         <v>40030.645833333336</v>
@@ -56074,7 +56289,7 @@
         <v>1.1204628159073928</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <f t="shared" si="8"/>
         <v>40030.666666666664</v>
@@ -56158,7 +56373,7 @@
         <v>0.83011375717142466</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <f t="shared" si="8"/>
         <v>40030.6875</v>
@@ -56242,7 +56457,7 @@
         <v>0.93363411860884626</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <f t="shared" si="8"/>
         <v>40030.708333333336</v>
@@ -56326,7 +56541,7 @@
         <v>0.84836224205350241</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <f t="shared" si="8"/>
         <v>40030.729166666672</v>
@@ -56410,7 +56625,7 @@
         <v>0.93852013171385174</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <f t="shared" si="8"/>
         <v>40030.75</v>
@@ -56494,7 +56709,7 @@
         <v>1.5501420199895868</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <f t="shared" si="8"/>
         <v>40030.770833333336</v>
@@ -56578,7 +56793,7 @@
         <v>0.97701734325513589</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <f t="shared" si="8"/>
         <v>40030.791666666664</v>
@@ -56662,7 +56877,7 @@
         <v>1.1778339290430475</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <f t="shared" si="8"/>
         <v>40030.8125</v>
@@ -56746,7 +56961,7 @@
         <v>2.4377380835500375</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <f t="shared" si="8"/>
         <v>40030.833333333336</v>
@@ -56830,7 +57045,7 @@
         <v>0.86380693684158827</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <f t="shared" si="8"/>
         <v>40030.854166666672</v>
@@ -56914,7 +57129,7 @@
         <v>0.62669880873043671</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <f t="shared" si="8"/>
         <v>40030.875</v>
@@ -56998,7 +57213,7 @@
         <v>0.36705560393891784</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <f t="shared" si="8"/>
         <v>40030.895833333336</v>
@@ -57082,7 +57297,7 @@
         <v>0.32349341428807632</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <f t="shared" si="8"/>
         <v>40030.916666666664</v>
@@ -57166,7 +57381,7 @@
         <v>0.24696628973594617</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <f t="shared" si="8"/>
         <v>40030.9375</v>
@@ -57250,7 +57465,7 @@
         <v>0.17177703541244568</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <f t="shared" si="8"/>
         <v>40030.958333333336</v>
@@ -57334,7 +57549,7 @@
         <v>4.3653684413297814E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <f t="shared" si="8"/>
         <v>40030.979166666672</v>
@@ -57418,7 +57633,7 @@
         <v>0.1622313805697855</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <f t="shared" si="8"/>
         <v>40031</v>
@@ -57502,7 +57717,7 @@
         <v>0.22970978688036425</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <f t="shared" si="8"/>
         <v>40031.020833333336</v>
@@ -57586,7 +57801,7 @@
         <v>0.52141072504120012</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <f t="shared" si="8"/>
         <v>40031.041666666664</v>
@@ -57670,7 +57885,7 @@
         <v>4.9765741996519064E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <f t="shared" si="8"/>
         <v>40031.0625</v>
@@ -57754,7 +57969,7 @@
         <v>0.2876238772607318</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <f t="shared" si="8"/>
         <v>40031.083333333336</v>
@@ -57838,7 +58053,7 @@
         <v>0.38667912761412415</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <f t="shared" si="8"/>
         <v>40031.104166666672</v>
@@ -57922,7 +58137,7 @@
         <v>7.7771764132817334E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <f t="shared" si="8"/>
         <v>40031.125</v>
@@ -58006,7 +58221,7 @@
         <v>9.7708814693955023E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <f t="shared" si="8"/>
         <v>40031.145833333336</v>
@@ -58090,7 +58305,7 @@
         <v>6.597886247192436E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <f t="shared" si="8"/>
         <v>40031.166666666664</v>
@@ -58174,7 +58389,7 @@
         <v>0.62269128552850006</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <f t="shared" si="8"/>
         <v>40031.1875</v>
@@ -58258,7 +58473,7 @@
         <v>0.65459870761086325</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <f t="shared" si="8"/>
         <v>40031.208333333336</v>
@@ -58342,7 +58557,7 @@
         <v>0.13328012756578977</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <f t="shared" si="8"/>
         <v>40031.229166666672</v>
@@ -58426,7 +58641,7 @@
         <v>0.12306737598051454</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <f t="shared" si="8"/>
         <v>40031.25</v>
@@ -58510,7 +58725,7 @@
         <v>0.3782757562863287</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <f t="shared" si="8"/>
         <v>40031.270833333336</v>
@@ -58594,7 +58809,7 @@
         <v>0.51047614843902767</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <f t="shared" si="8"/>
         <v>40031.291666666664</v>
@@ -58678,7 +58893,7 @@
         <v>0.72608402892339785</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <f t="shared" si="8"/>
         <v>40031.3125</v>
@@ -58762,7 +58977,7 @@
         <v>0.86386933185533621</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <f t="shared" si="8"/>
         <v>40031.333333333336</v>
@@ -58846,7 +59061,7 @@
         <v>1.0819113267602876</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <f t="shared" si="8"/>
         <v>40031.354166666672</v>
@@ -58930,7 +59145,7 @@
         <v>0.9670082061306553</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <f t="shared" si="8"/>
         <v>40031.375</v>
@@ -59014,7 +59229,7 @@
         <v>1.1098702697134037</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <f t="shared" si="8"/>
         <v>40031.395833333336</v>
@@ -59098,7 +59313,7 @@
         <v>1.1053966773786854</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <f t="shared" si="8"/>
         <v>40031.416666666664</v>
@@ -59182,7 +59397,7 @@
         <v>1.3013453981844181</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <f t="shared" si="8"/>
         <v>40031.4375</v>
@@ -59266,7 +59481,7 @@
         <v>1.1438821457461001</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <f t="shared" si="8"/>
         <v>40031.458333333336</v>
@@ -59350,7 +59565,7 @@
         <v>1.1948996678944943</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <f t="shared" si="8"/>
         <v>40031.479166666672</v>
@@ -59434,7 +59649,7 @@
         <v>1.0282640931121088</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <f t="shared" si="8"/>
         <v>40031.5</v>
@@ -59518,7 +59733,7 @@
         <v>1.070057667999698</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <f t="shared" si="8"/>
         <v>40031.520833333336</v>
@@ -59602,7 +59817,7 @@
         <v>0.96055422086168718</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <f t="shared" si="8"/>
         <v>40031.541666666664</v>
@@ -59686,7 +59901,7 @@
         <v>1.1195598978705796</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <f t="shared" si="8"/>
         <v>40031.5625</v>
@@ -59770,7 +59985,7 @@
         <v>1.3581004025931431</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <f t="shared" si="8"/>
         <v>40031.583333333336</v>
@@ -59854,7 +60069,7 @@
         <v>1.1122856207814069</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <f t="shared" si="8"/>
         <v>40031.604166666672</v>
@@ -59938,7 +60153,7 @@
         <v>1.20305743843177</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <f t="shared" si="8"/>
         <v>40031.625</v>
@@ -60022,7 +60237,7 @@
         <v>1.2414637024437836</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <f t="shared" si="8"/>
         <v>40031.645833333336</v>
@@ -60106,7 +60321,7 @@
         <v>1.4505167934056944</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <f t="shared" si="8"/>
         <v>40031.666666666664</v>
@@ -60190,7 +60405,7 @@
         <v>1.3706128594836529</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <f t="shared" ref="A136:A199" si="14">DATE(2009,1,1)+B136-1+C136/24+D136/24/60</f>
         <v>40031.6875</v>
@@ -60274,7 +60489,7 @@
         <v>1.7732641503717044</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <f t="shared" si="14"/>
         <v>40031.708333333336</v>
@@ -60358,7 +60573,7 @@
         <v>0.73069135258916051</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <f t="shared" si="14"/>
         <v>40031.729166666672</v>
@@ -60442,7 +60657,7 @@
         <v>1.221698067383858</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <f t="shared" si="14"/>
         <v>40031.75</v>
@@ -60526,7 +60741,7 @@
         <v>1.174803171294543</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <f t="shared" si="14"/>
         <v>40031.770833333336</v>
@@ -60610,7 +60825,7 @@
         <v>0.25106611051081684</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <f t="shared" si="14"/>
         <v>40031.791666666664</v>
@@ -60694,7 +60909,7 @@
         <v>0.94662138436058796</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <f t="shared" si="14"/>
         <v>40031.8125</v>
@@ -60778,7 +60993,7 @@
         <v>1.308931936221468</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <f t="shared" si="14"/>
         <v>40031.833333333336</v>
@@ -60862,7 +61077,7 @@
         <v>7.62943710879878</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <f t="shared" si="14"/>
         <v>40031.854166666672</v>
@@ -60946,7 +61161,7 @@
         <v>0.38660489447250201</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <f t="shared" si="14"/>
         <v>40031.875</v>
@@ -61030,7 +61245,7 @@
         <v>7.3193021575115258E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <f t="shared" si="14"/>
         <v>40031.895833333336</v>
@@ -61114,7 +61329,7 @@
         <v>0.11535745012357568</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <f t="shared" si="14"/>
         <v>40031.916666666664</v>
@@ -61198,7 +61413,7 @@
         <v>3.5078447558237469E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <f t="shared" si="14"/>
         <v>40031.9375</v>
@@ -61282,7 +61497,7 @@
         <v>5.5987605860426691E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <f t="shared" si="14"/>
         <v>40031.958333333336</v>
@@ -61366,7 +61581,7 @@
         <v>1.1634106866048028E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <f t="shared" si="14"/>
         <v>40031.979166666672</v>
@@ -61450,7 +61665,7 @@
         <v>1.1910361645768993E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <f t="shared" si="14"/>
         <v>40032</v>
@@ -61534,7 +61749,7 @@
         <v>0.21423434103932024</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <f t="shared" si="14"/>
         <v>40032.020833333336</v>
@@ -61618,7 +61833,7 @@
         <v>0.1451575556785544</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <f t="shared" si="14"/>
         <v>40032.041666666664</v>
@@ -61702,7 +61917,7 @@
         <v>0.15677034539647744</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <f t="shared" si="14"/>
         <v>40032.0625</v>
@@ -61786,7 +62001,7 @@
         <v>0.25573305186873957</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <f t="shared" si="14"/>
         <v>40032.083333333336</v>
@@ -61870,7 +62085,7 @@
         <v>9.9291214024439259E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <f t="shared" si="14"/>
         <v>40032.104166666672</v>
@@ -61954,7 +62169,7 @@
         <v>0.43361055607556354</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <f t="shared" si="14"/>
         <v>40032.125</v>
@@ -62038,7 +62253,7 @@
         <v>7.2104349875555265E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <f t="shared" si="14"/>
         <v>40032.145833333336</v>
@@ -62122,7 +62337,7 @@
         <v>0.21095515715407723</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <f t="shared" si="14"/>
         <v>40032.166666666664</v>
@@ -62206,7 +62421,7 @@
         <v>0.51413177740687455</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <f t="shared" si="14"/>
         <v>40032.1875</v>
@@ -62290,7 +62505,7 @@
         <v>0.4620689256950174</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <f t="shared" si="14"/>
         <v>40032.208333333336</v>
@@ -62374,7 +62589,7 @@
         <v>0.12467642439464585</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <f t="shared" si="14"/>
         <v>40032.229166666672</v>
@@ -62458,7 +62673,7 @@
         <v>0.13431985672649746</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <f t="shared" si="14"/>
         <v>40032.25</v>
@@ -62542,7 +62757,7 @@
         <v>0.41024571000113769</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <f t="shared" si="14"/>
         <v>40032.270833333336</v>
@@ -62626,7 +62841,7 @@
         <v>0.48979989804871787</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <f t="shared" si="14"/>
         <v>40032.291666666664</v>
@@ -62710,7 +62925,7 @@
         <v>0.69332528057803411</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <f t="shared" si="14"/>
         <v>40032.3125</v>
@@ -62794,7 +63009,7 @@
         <v>0.96693328183550376</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <f t="shared" si="14"/>
         <v>40032.333333333336</v>
@@ -62878,7 +63093,7 @@
         <v>0.94129771808921459</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <f t="shared" si="14"/>
         <v>40032.354166666672</v>
@@ -62962,7 +63177,7 @@
         <v>0.93399745695427683</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <f t="shared" si="14"/>
         <v>40032.375</v>
@@ -63046,7 +63261,7 @@
         <v>1.3318903228651193</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <f t="shared" si="14"/>
         <v>40032.395833333336</v>
@@ -63130,7 +63345,7 @@
         <v>0.96642067071100735</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <f t="shared" si="14"/>
         <v>40032.416666666664</v>
@@ -63214,7 +63429,7 @@
         <v>1.0589976137211363</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <f t="shared" si="14"/>
         <v>40032.4375</v>
@@ -63298,7 +63513,7 @@
         <v>1.2846576075479148</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
         <f t="shared" si="14"/>
         <v>40032.458333333336</v>
@@ -63382,7 +63597,7 @@
         <v>1.3301475024679272</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <f t="shared" si="14"/>
         <v>40032.479166666672</v>
@@ -63466,7 +63681,7 @@
         <v>1.4764642335159255</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <f t="shared" si="14"/>
         <v>40032.5</v>
@@ -63550,7 +63765,7 @@
         <v>1.1394522343151317</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <f t="shared" si="14"/>
         <v>40032.520833333336</v>
@@ -63634,7 +63849,7 @@
         <v>1.1879096773183855</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <f t="shared" si="14"/>
         <v>40032.541666666664</v>
@@ -63718,7 +63933,7 @@
         <v>1.1402653738003916</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <f t="shared" si="14"/>
         <v>40032.5625</v>
@@ -63802,7 +64017,7 @@
         <v>1.4642895348852889</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <f t="shared" si="14"/>
         <v>40032.583333333336</v>
@@ -63886,7 +64101,7 @@
         <v>2.2883652119583946</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <f t="shared" si="14"/>
         <v>40032.604166666672</v>
@@ -63970,7 +64185,7 @@
         <v>1.2344886897669969</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
         <f t="shared" si="14"/>
         <v>40032.625</v>
@@ -64054,7 +64269,7 @@
         <v>1.273337543154148</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
         <f t="shared" si="14"/>
         <v>40032.645833333336</v>
@@ -64138,7 +64353,7 @@
         <v>0.87959694935556876</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <f t="shared" si="14"/>
         <v>40032.666666666664</v>
@@ -64214,7 +64429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <f t="shared" si="14"/>
         <v>40032.6875</v>
@@ -64290,7 +64505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <f t="shared" si="14"/>
         <v>40032.708333333336</v>
@@ -64366,7 +64581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <f t="shared" si="14"/>
         <v>40032.729166666672</v>
@@ -64442,7 +64657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <f t="shared" si="14"/>
         <v>40032.75</v>
@@ -64508,7 +64723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <f t="shared" si="14"/>
         <v>40032.770833333336</v>
@@ -64574,7 +64789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <f t="shared" si="14"/>
         <v>40032.791666666664</v>
@@ -64640,7 +64855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <f t="shared" si="14"/>
         <v>40032.8125</v>
@@ -64706,7 +64921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <f t="shared" si="14"/>
         <v>40032.833333333336</v>
@@ -64772,7 +64987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <f t="shared" si="14"/>
         <v>40032.854166666672</v>
@@ -64838,7 +65053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <f t="shared" si="14"/>
         <v>40032.875</v>
@@ -64904,7 +65119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <f t="shared" si="14"/>
         <v>40032.895833333336</v>
@@ -64970,7 +65185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <f t="shared" si="14"/>
         <v>40032.916666666664</v>
@@ -65036,7 +65251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <f t="shared" si="14"/>
         <v>40032.9375</v>
@@ -65112,7 +65327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <f t="shared" si="14"/>
         <v>40032.958333333336</v>
@@ -65192,7 +65407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <f t="shared" si="14"/>
         <v>40032.979166666672</v>
@@ -65272,7 +65487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <f t="shared" si="14"/>
         <v>40033</v>
@@ -65352,7 +65567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <f t="shared" ref="A200:A263" si="20">DATE(2009,1,1)+B200-1+C200/24+D200/24/60</f>
         <v>40033.020833333336</v>
@@ -65436,7 +65651,7 @@
         <v>0.22291797658805532</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <f t="shared" si="20"/>
         <v>40033.041666666664</v>
@@ -65520,7 +65735,7 @@
         <v>0.24894235124982045</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <f t="shared" si="20"/>
         <v>40033.0625</v>
@@ -65604,7 +65819,7 @@
         <v>4.9860279868523864E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <f t="shared" si="20"/>
         <v>40033.083333333336</v>
@@ -65688,7 +65903,7 @@
         <v>0.29655338929750436</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <f t="shared" si="20"/>
         <v>40033.104166666672</v>
@@ -65772,7 +65987,7 @@
         <v>0.3113994811973021</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <f t="shared" si="20"/>
         <v>40033.125</v>
@@ -65856,7 +66071,7 @@
         <v>0.3275281223307121</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <f t="shared" si="20"/>
         <v>40033.145833333336</v>
@@ -65940,7 +66155,7 @@
         <v>0.34362097187354879</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <f t="shared" si="20"/>
         <v>40033.166666666664</v>
@@ -66024,7 +66239,7 @@
         <v>0.22070577771856731</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <f t="shared" si="20"/>
         <v>40033.1875</v>
@@ -66108,7 +66323,7 @@
         <v>0.60205118735292129</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <f t="shared" si="20"/>
         <v>40033.208333333336</v>
@@ -66192,7 +66407,7 @@
         <v>0.33525012117535219</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <f t="shared" si="20"/>
         <v>40033.229166666672</v>
@@ -66276,7 +66491,7 @@
         <v>0.49691483464951636</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <f t="shared" si="20"/>
         <v>40033.25</v>
@@ -66360,7 +66575,7 @@
         <v>0.37812487730256866</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <f t="shared" si="20"/>
         <v>40033.270833333336</v>
@@ -66444,7 +66659,7 @@
         <v>0.39782352293022166</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <f t="shared" si="20"/>
         <v>40033.291666666664</v>
@@ -66522,7 +66737,7 @@
         <v>0.10915565796602114</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <f t="shared" si="20"/>
         <v>40033.3125</v>
@@ -66606,7 +66821,7 @@
         <v>0.53942315857404366</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <f t="shared" si="20"/>
         <v>40033.333333333336</v>
@@ -66690,7 +66905,7 @@
         <v>0.73452357896130571</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <f t="shared" si="20"/>
         <v>40033.354166666672</v>
@@ -66774,7 +66989,7 @@
         <v>0.83860088985228809</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <f t="shared" si="20"/>
         <v>40033.375</v>
@@ -66858,7 +67073,7 @@
         <v>0.98191070222558863</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <f t="shared" si="20"/>
         <v>40033.395833333336</v>
@@ -66942,7 +67157,7 @@
         <v>0.93059067896789649</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <f t="shared" si="20"/>
         <v>40033.416666666664</v>
@@ -67026,7 +67241,7 @@
         <v>0.68628188512096544</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <f t="shared" si="20"/>
         <v>40033.4375</v>
@@ -67110,7 +67325,7 @@
         <v>0.96415296448755039</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <f t="shared" si="20"/>
         <v>40033.458333333336</v>
@@ -67194,7 +67409,7 @@
         <v>0.92490850409627323</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <f t="shared" si="20"/>
         <v>40033.479166666672</v>
@@ -67278,7 +67493,7 @@
         <v>0.87733885694451741</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <f t="shared" si="20"/>
         <v>40033.5</v>
@@ -67362,7 +67577,7 @@
         <v>0.85642941434314035</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <f t="shared" si="20"/>
         <v>40033.520833333336</v>
@@ -67446,7 +67661,7 @@
         <v>0.88305378636886445</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <f t="shared" si="20"/>
         <v>40033.541666666664</v>
@@ -67530,7 +67745,7 @@
         <v>0.98752063967100345</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <f t="shared" si="20"/>
         <v>40033.5625</v>
@@ -67614,7 +67829,7 @@
         <v>1.1309605606794502</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <f t="shared" si="20"/>
         <v>40033.583333333336</v>
@@ -67698,7 +67913,7 @@
         <v>0.92976194027533621</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <f t="shared" si="20"/>
         <v>40033.604166666672</v>
@@ -67782,7 +67997,7 @@
         <v>1.0043806760299594</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <f t="shared" si="20"/>
         <v>40033.625</v>
@@ -67866,7 +68081,7 @@
         <v>1.2171631138458165</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
         <f t="shared" si="20"/>
         <v>40033.645833333336</v>
@@ -67950,7 +68165,7 @@
         <v>0.96955055673975699</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
         <f t="shared" si="20"/>
         <v>40033.666666666664</v>
@@ -68034,7 +68249,7 @@
         <v>1.234044959778936</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
         <f t="shared" si="20"/>
         <v>40033.6875</v>
@@ -68118,7 +68333,7 @@
         <v>0.83274017133715439</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
         <f t="shared" si="20"/>
         <v>40033.708333333336</v>
@@ -68202,7 +68417,7 @@
         <v>0.76162161467084477</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
         <f t="shared" si="20"/>
         <v>40033.729166666672</v>
@@ -68286,7 +68501,7 @@
         <v>0.89936982420070177</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
         <f t="shared" si="20"/>
         <v>40033.75</v>
@@ -68370,7 +68585,7 @@
         <v>1.2576392178017479</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A236" s="7">
         <f t="shared" si="20"/>
         <v>40033.770833333336</v>
@@ -68454,7 +68669,7 @@
         <v>0.82243658478490111</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <f t="shared" si="20"/>
         <v>40033.791666666664</v>
@@ -68538,7 +68753,7 @@
         <v>0.60698407866403881</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A238" s="7">
         <f t="shared" si="20"/>
         <v>40033.8125</v>
@@ -68622,7 +68837,7 @@
         <v>6.2612518288370791E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
         <f t="shared" si="20"/>
         <v>40033.833333333336</v>
@@ -68706,7 +68921,7 @@
         <v>0.16422356809490166</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A240" s="7">
         <f t="shared" si="20"/>
         <v>40033.854166666672</v>
@@ -68790,7 +69005,7 @@
         <v>8.2557349751320133E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
         <f t="shared" si="20"/>
         <v>40033.875</v>
@@ -68874,7 +69089,7 @@
         <v>0.23997325701385269</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A242" s="7">
         <f t="shared" si="20"/>
         <v>40033.895833333336</v>
@@ -68958,7 +69173,7 @@
         <v>2.8591989970866514E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
         <f t="shared" si="20"/>
         <v>40033.916666666664</v>
@@ -69042,7 +69257,7 @@
         <v>0.28206685516462077</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A244" s="7">
         <f t="shared" si="20"/>
         <v>40033.9375</v>
@@ -69126,7 +69341,7 @@
         <v>1.2526273702941177</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
         <f t="shared" si="20"/>
         <v>40033.958333333336</v>
@@ -69210,7 +69425,7 @@
         <v>2.6077639315000485</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A246" s="7">
         <f t="shared" si="20"/>
         <v>40033.979166666672</v>
@@ -69294,7 +69509,7 @@
         <v>1.756890364083439</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
         <f t="shared" si="20"/>
         <v>40034</v>
@@ -69378,7 +69593,7 @@
         <v>0.32483695324591777</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A248" s="7">
         <f t="shared" si="20"/>
         <v>40034.020833333336</v>
@@ -69462,7 +69677,7 @@
         <v>1.7126810974332789</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A249" s="7">
         <f t="shared" si="20"/>
         <v>40034.041666666664</v>
@@ -69546,7 +69761,7 @@
         <v>0.32351897982067063</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A250" s="7">
         <f t="shared" si="20"/>
         <v>40034.0625</v>
@@ -69630,7 +69845,7 @@
         <v>16.597437688446863</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A251" s="7">
         <f t="shared" si="20"/>
         <v>40034.083333333336</v>
@@ -69714,7 +69929,7 @@
         <v>0.18513359687256087</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A252" s="7">
         <f t="shared" si="20"/>
         <v>40034.104166666672</v>
@@ -69798,7 +70013,7 @@
         <v>0.2856355314410885</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A253" s="7">
         <f t="shared" si="20"/>
         <v>40034.125</v>
@@ -69882,7 +70097,7 @@
         <v>1.2497489216401233E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A254" s="7">
         <f t="shared" si="20"/>
         <v>40034.145833333336</v>
@@ -69966,7 +70181,7 @@
         <v>0.18904822240441219</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A255" s="7">
         <f t="shared" si="20"/>
         <v>40034.166666666664</v>
@@ -70050,7 +70265,7 @@
         <v>0.58754963248477032</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A256" s="7">
         <f t="shared" si="20"/>
         <v>40034.1875</v>
@@ -70134,7 +70349,7 @@
         <v>0.22913726708632362</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
         <f t="shared" si="20"/>
         <v>40034.208333333336</v>
@@ -70218,7 +70433,7 @@
         <v>0.42296530103933339</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
         <f t="shared" si="20"/>
         <v>40034.229166666672</v>
@@ -70302,7 +70517,7 @@
         <v>0.39250499869619832</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
         <f t="shared" si="20"/>
         <v>40034.25</v>
@@ -70386,7 +70601,7 @@
         <v>0.3888700606445793</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
         <f t="shared" si="20"/>
         <v>40034.270833333336</v>
@@ -70470,7 +70685,7 @@
         <v>0.60394131373768589</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
         <f t="shared" si="20"/>
         <v>40034.291666666664</v>
@@ -70554,7 +70769,7 @@
         <v>0.87583431615212182</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
         <f t="shared" si="20"/>
         <v>40034.3125</v>
@@ -70638,7 +70853,7 @@
         <v>0.73888310691788051</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
         <f t="shared" si="20"/>
         <v>40034.333333333336</v>
@@ -70722,7 +70937,7 @@
         <v>0.87183705291476654</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
         <f t="shared" ref="A264:A327" si="26">DATE(2009,1,1)+B264-1+C264/24+D264/24/60</f>
         <v>40034.354166666672</v>
@@ -70806,7 +71021,7 @@
         <v>1.1620512360714166</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
         <f t="shared" si="26"/>
         <v>40034.375</v>
@@ -70890,7 +71105,7 @@
         <v>1.1136747189764704</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
         <f t="shared" si="26"/>
         <v>40034.395833333336</v>
@@ -70974,7 +71189,7 @@
         <v>0.9767811096251251</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
         <f t="shared" si="26"/>
         <v>40034.416666666664</v>
@@ -71058,7 +71273,7 @@
         <v>1.0323007067843031</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
         <f t="shared" si="26"/>
         <v>40034.4375</v>
@@ -71142,7 +71357,7 @@
         <v>1.1620328314352493</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
         <f t="shared" si="26"/>
         <v>40034.458333333336</v>
@@ -71226,7 +71441,7 @@
         <v>1.1412285734022556</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A270" s="7">
         <f t="shared" si="26"/>
         <v>40034.479166666672</v>
@@ -71310,7 +71525,7 @@
         <v>1.0502878445408421</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A271" s="7">
         <f t="shared" si="26"/>
         <v>40034.5</v>
@@ -71394,7 +71609,7 @@
         <v>1.3292102251637343</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A272" s="7">
         <f t="shared" si="26"/>
         <v>40034.520833333336</v>
@@ -71478,7 +71693,7 @@
         <v>1.000684972013113</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
         <f t="shared" si="26"/>
         <v>40034.541666666664</v>
@@ -71562,7 +71777,7 @@
         <v>0.99875529864846735</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A274" s="7">
         <f t="shared" si="26"/>
         <v>40034.5625</v>
@@ -71646,7 +71861,7 @@
         <v>1.0682759463288454</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A275" s="7">
         <f t="shared" si="26"/>
         <v>40034.583333333336</v>
@@ -71730,7 +71945,7 @@
         <v>1.3245013592685146</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A276" s="7">
         <f t="shared" si="26"/>
         <v>40034.604166666672</v>
@@ -71814,7 +72029,7 @@
         <v>1.0531280309474906</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A277" s="7">
         <f t="shared" si="26"/>
         <v>40034.625</v>
@@ -71898,7 +72113,7 @@
         <v>1.1358519060557524</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A278" s="7">
         <f t="shared" si="26"/>
         <v>40034.645833333336</v>
@@ -71982,7 +72197,7 @@
         <v>1.1221157930586927</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A279" s="7">
         <f t="shared" si="26"/>
         <v>40034.666666666664</v>
@@ -72066,7 +72281,7 @@
         <v>1.2286471654212043</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A280" s="7">
         <f t="shared" si="26"/>
         <v>40034.6875</v>
@@ -72150,7 +72365,7 @@
         <v>1.8877876161920077</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A281" s="7">
         <f t="shared" si="26"/>
         <v>40034.708333333336</v>
@@ -72234,7 +72449,7 @@
         <v>1.4425202041904348</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A282" s="7">
         <f t="shared" si="26"/>
         <v>40034.729166666672</v>
@@ -72318,7 +72533,7 @@
         <v>1.2016115662620055</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A283" s="7">
         <f t="shared" si="26"/>
         <v>40034.75</v>
@@ -72402,7 +72617,7 @@
         <v>1.320190342982827</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A284" s="7">
         <f t="shared" si="26"/>
         <v>40034.770833333336</v>
@@ -72486,7 +72701,7 @@
         <v>5.6607926061068534</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A285" s="7">
         <f t="shared" si="26"/>
         <v>40034.791666666664</v>
@@ -72570,7 +72785,7 @@
         <v>0.32665537185695392</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A286" s="7">
         <f t="shared" si="26"/>
         <v>40034.8125</v>
@@ -72654,7 +72869,7 @@
         <v>0.20633000108092045</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A287" s="7">
         <f t="shared" si="26"/>
         <v>40034.833333333336</v>
@@ -72738,7 +72953,7 @@
         <v>2.9143014977367557E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A288" s="7">
         <f t="shared" si="26"/>
         <v>40034.854166666672</v>
@@ -72822,7 +73037,7 @@
         <v>2.653594628342049E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
         <f t="shared" si="26"/>
         <v>40034.875</v>
@@ -72906,7 +73121,7 @@
         <v>9.8185387779136352E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A290" s="7">
         <f t="shared" si="26"/>
         <v>40034.895833333336</v>
@@ -72990,7 +73205,7 @@
         <v>0.16851649684619141</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A291" s="7">
         <f t="shared" si="26"/>
         <v>40034.916666666664</v>
@@ -73074,7 +73289,7 @@
         <v>0.27776388569370908</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A292" s="7">
         <f t="shared" si="26"/>
         <v>40034.9375</v>
@@ -73158,7 +73373,7 @@
         <v>0.51490852471778759</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A293" s="7">
         <f t="shared" si="26"/>
         <v>40034.958333333336</v>
@@ -73242,7 +73457,7 @@
         <v>0.27492397152691955</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A294" s="7">
         <f t="shared" si="26"/>
         <v>40034.979166666672</v>
@@ -73326,7 +73541,7 @@
         <v>0.26603958161858016</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A295" s="7">
         <f t="shared" si="26"/>
         <v>40035</v>
@@ -73410,7 +73625,7 @@
         <v>1.2618579678103563</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296" s="7">
         <f t="shared" si="26"/>
         <v>40035.020833333336</v>
@@ -73494,7 +73709,7 @@
         <v>1.6759669771752084</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A297" s="7">
         <f t="shared" si="26"/>
         <v>40035.041666666664</v>
@@ -73578,7 +73793,7 @@
         <v>1.185680268835096</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A298" s="7">
         <f t="shared" si="26"/>
         <v>40035.0625</v>
@@ -73662,7 +73877,7 @@
         <v>1.8316037021561151</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A299" s="7">
         <f t="shared" si="26"/>
         <v>40035.083333333336</v>
@@ -73746,7 +73961,7 @@
         <v>1.5999329685409294</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A300" s="7">
         <f t="shared" si="26"/>
         <v>40035.104166666672</v>
@@ -73830,7 +74045,7 @@
         <v>0.52012925648832964</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A301" s="7">
         <f t="shared" si="26"/>
         <v>40035.125</v>
@@ -73914,7 +74129,7 @@
         <v>0.53481566124682345</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A302" s="7">
         <f t="shared" si="26"/>
         <v>40035.145833333336</v>
@@ -73998,7 +74213,7 @@
         <v>0.28101030786517356</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A303" s="7">
         <f t="shared" si="26"/>
         <v>40035.166666666664</v>
@@ -74082,7 +74297,7 @@
         <v>0.31832132642162364</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A304" s="7">
         <f t="shared" si="26"/>
         <v>40035.1875</v>
@@ -74166,7 +74381,7 @@
         <v>0.11303388277486058</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A305" s="7">
         <f t="shared" si="26"/>
         <v>40035.208333333336</v>
@@ -74250,7 +74465,7 @@
         <v>0.29422412688074434</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A306" s="7">
         <f t="shared" si="26"/>
         <v>40035.229166666672</v>
@@ -74334,7 +74549,7 @@
         <v>0.42863464828514014</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A307" s="7">
         <f t="shared" si="26"/>
         <v>40035.25</v>
@@ -74418,7 +74633,7 @@
         <v>0.37518646425212904</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A308" s="7">
         <f t="shared" si="26"/>
         <v>40035.270833333336</v>
@@ -74502,7 +74717,7 @@
         <v>0.50563076610125868</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A309" s="7">
         <f t="shared" si="26"/>
         <v>40035.291666666664</v>
@@ -74586,7 +74801,7 @@
         <v>0.75578290502328305</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A310" s="7">
         <f t="shared" si="26"/>
         <v>40035.3125</v>
@@ -74670,7 +74885,7 @@
         <v>0.83493993776038311</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A311" s="7">
         <f t="shared" si="26"/>
         <v>40035.333333333336</v>
@@ -74754,7 +74969,7 @@
         <v>0.86757074198285189</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A312" s="7">
         <f t="shared" si="26"/>
         <v>40035.354166666672</v>
@@ -74838,7 +75053,7 @@
         <v>0.81016576245077643</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A313" s="7">
         <f t="shared" si="26"/>
         <v>40035.375</v>
@@ -74922,7 +75137,7 @@
         <v>0.88157089891376406</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A314" s="7">
         <f t="shared" si="26"/>
         <v>40035.395833333336</v>
@@ -75006,7 +75221,7 @@
         <v>0.8404879241956037</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A315" s="7">
         <f t="shared" si="26"/>
         <v>40035.416666666664</v>
@@ -75090,7 +75305,7 @@
         <v>0.80329464991970312</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A316" s="7">
         <f t="shared" si="26"/>
         <v>40035.4375</v>
@@ -75174,7 +75389,7 @@
         <v>1.1001994822979062</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A317" s="7">
         <f t="shared" si="26"/>
         <v>40035.458333333336</v>
@@ -75258,7 +75473,7 @@
         <v>0.91916041485561306</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A318" s="7">
         <f t="shared" si="26"/>
         <v>40035.479166666672</v>
@@ -75342,7 +75557,7 @@
         <v>1.0803784653376729</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A319" s="7">
         <f t="shared" si="26"/>
         <v>40035.5</v>
@@ -75426,7 +75641,7 @@
         <v>1.0935874278543034</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A320" s="7">
         <f t="shared" si="26"/>
         <v>40035.520833333336</v>
@@ -75510,7 +75725,7 @@
         <v>1.0731810947929905</v>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A321" s="7">
         <f t="shared" si="26"/>
         <v>40035.541666666664</v>
@@ -75594,7 +75809,7 @@
         <v>1.2020079464225903</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A322" s="7">
         <f t="shared" si="26"/>
         <v>40035.5625</v>
@@ -75678,7 +75893,7 @@
         <v>1.2268903801371953</v>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A323" s="7">
         <f t="shared" si="26"/>
         <v>40035.583333333336</v>
@@ -75762,7 +75977,7 @@
         <v>1.5587731574371797</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A324" s="7">
         <f t="shared" si="26"/>
         <v>40035.604166666672</v>
@@ -75846,7 +76061,7 @@
         <v>1.4375208758548474</v>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A325" s="7">
         <f t="shared" si="26"/>
         <v>40035.625</v>
@@ -75930,7 +76145,7 @@
         <v>1.3735516859609711</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A326" s="7">
         <f t="shared" si="26"/>
         <v>40035.645833333336</v>
@@ -76014,7 +76229,7 @@
         <v>1.3444431638650434</v>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A327" s="7">
         <f t="shared" si="26"/>
         <v>40035.666666666664</v>
@@ -76098,7 +76313,7 @@
         <v>1.3132445512613748</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A328" s="7">
         <f t="shared" ref="A328:A343" si="32">DATE(2009,1,1)+B328-1+C328/24+D328/24/60</f>
         <v>40035.6875</v>
@@ -76182,7 +76397,7 @@
         <v>1.3226827582020275</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A329" s="7">
         <f t="shared" si="32"/>
         <v>40035.708333333336</v>
@@ -76266,7 +76481,7 @@
         <v>4.1505707365986035</v>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A330" s="7">
         <f t="shared" si="32"/>
         <v>40035.729166666672</v>
@@ -76350,7 +76565,7 @@
         <v>0.90763084117453452</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A331" s="7">
         <f t="shared" si="32"/>
         <v>40035.75</v>
@@ -76434,7 +76649,7 @@
         <v>1.028007819935665</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A332" s="7">
         <f t="shared" si="32"/>
         <v>40035.770833333336</v>
@@ -76518,7 +76733,7 @@
         <v>0.727532776264318</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A333" s="7">
         <f t="shared" si="32"/>
         <v>40035.791666666664</v>
@@ -76602,7 +76817,7 @@
         <v>0.19710563064942691</v>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A334" s="7">
         <f t="shared" si="32"/>
         <v>40035.8125</v>
@@ -76686,7 +76901,7 @@
         <v>0.70306058107387337</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A335" s="7">
         <f t="shared" si="32"/>
         <v>40035.833333333336</v>
@@ -76770,7 +76985,7 @@
         <v>6.7746584244991387E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A336" s="7">
         <f t="shared" si="32"/>
         <v>40035.854166666672</v>
@@ -76854,7 +77069,7 @@
         <v>0.21637270086237193</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A337" s="7">
         <f t="shared" si="32"/>
         <v>40035.875</v>
@@ -76938,7 +77153,7 @@
         <v>0.21564818160513688</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A338" s="7">
         <f t="shared" si="32"/>
         <v>40035.895833333336</v>
@@ -77022,7 +77237,7 @@
         <v>0.13627621512517976</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A339" s="7">
         <f t="shared" si="32"/>
         <v>40035.916666666664</v>
@@ -77106,7 +77321,7 @@
         <v>0.10821456364834338</v>
       </c>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A340" s="7">
         <f t="shared" si="32"/>
         <v>40035.9375</v>
@@ -77190,7 +77405,7 @@
         <v>0.2383512238416135</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A341" s="7">
         <f t="shared" si="32"/>
         <v>40035.958333333336</v>
@@ -77274,7 +77489,7 @@
         <v>9.1631372056991747E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A342" s="7">
         <f t="shared" si="32"/>
         <v>40035.979166666672</v>
@@ -77358,7 +77573,7 @@
         <v>0.13247802604732609</v>
       </c>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A343" s="7">
         <f t="shared" si="32"/>
         <v>40036</v>
@@ -77442,7 +77657,7 @@
         <v>2.7429546701342958E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
